--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_15_23.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_15_23.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>189796.0469751049</v>
+        <v>185614.336402967</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6710378.753666297</v>
+        <v>6710378.753666298</v>
       </c>
     </row>
     <row r="9">
@@ -1135,13 +1135,13 @@
         <v>22.03657478005869</v>
       </c>
       <c r="C8" t="n">
-        <v>33.76104808841092</v>
+        <v>119.0839105424612</v>
       </c>
       <c r="D8" t="n">
         <v>31.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>119.0839105424607</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F8" t="n">
         <v>23.58875529488432</v>
@@ -1150,7 +1150,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>119.0839105424607</v>
+        <v>119.0839105424612</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1183,10 +1183,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>74.18125311796771</v>
       </c>
       <c r="T8" t="n">
-        <v>93.07475251470385</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1195,7 +1195,7 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0.8069000430770075</v>
+        <v>24.02445013493715</v>
       </c>
       <c r="X8" t="n">
         <v>14.9510387864824</v>
@@ -1217,16 +1217,16 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>94.13938596491228</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>93.17921052631581</v>
+        <v>82.36770928169143</v>
       </c>
       <c r="F9" t="n">
         <v>82.55</v>
       </c>
       <c r="G9" t="n">
-        <v>84.32851138425291</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1262,7 +1262,7 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>59.05530966656963</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
@@ -1271,13 +1271,13 @@
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>107.9437321577007</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>119.0839105424612</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>119.0839105424612</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1293,13 +1293,13 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>91.32747982963581</v>
       </c>
       <c r="D10" t="n">
-        <v>91.32747982963529</v>
+        <v>119.0839105424612</v>
       </c>
       <c r="E10" t="n">
-        <v>119.0839105424607</v>
+        <v>119.0839105424612</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>13.56162857616408</v>
+        <v>13.56162857616405</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>119.0839105424607</v>
+        <v>119.0839105424612</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>119.0839105424607</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1378,16 +1378,16 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1426,13 +1426,13 @@
         <v>209.6535390155789</v>
       </c>
       <c r="U11" t="n">
-        <v>256.4799845637012</v>
+        <v>111.6239350792301</v>
       </c>
       <c r="V11" t="n">
-        <v>65.45709821928079</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -1527,16 +1527,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E13" t="n">
-        <v>103.7694980280799</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F13" t="n">
         <v>174.9399834978613</v>
@@ -1545,10 +1545,10 @@
         <v>163.0937685836068</v>
       </c>
       <c r="H13" t="n">
-        <v>131.0206200144773</v>
+        <v>11.892974579398</v>
       </c>
       <c r="I13" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T13" t="n">
         <v>239.8247518556274</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1621,10 +1621,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H14" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1660,7 +1660,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>209.6535390155789</v>
+        <v>51.96464881678457</v>
       </c>
       <c r="U14" t="n">
         <v>256.4799845637012</v>
@@ -1672,7 +1672,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X14" t="n">
-        <v>392.8310130470538</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>404.2032624633431</v>
@@ -1764,19 +1764,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>186.5357679566474</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C16" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D16" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>174.9399834978613</v>
+        <v>98.23597810413362</v>
       </c>
       <c r="G16" t="n">
         <v>163.0937685836068</v>
@@ -1785,7 +1785,7 @@
         <v>131.0206200144773</v>
       </c>
       <c r="I16" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1830,10 +1830,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="17">
@@ -1843,13 +1843,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D17" t="n">
-        <v>215.9854048686361</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -1858,10 +1858,10 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>128.6617978868708</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1900,16 +1900,16 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V17" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X17" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>404.2032624633431</v>
@@ -2004,22 +2004,22 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>94.13208900787961</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F19" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>131.0206200144773</v>
+        <v>49.34995949258661</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2080,22 +2080,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>395.2479192115767</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>214.230991478422</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2131,10 +2131,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -2149,7 +2149,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y20" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2238,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E22" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F22" t="n">
-        <v>174.9399834978613</v>
+        <v>109.5236135272854</v>
       </c>
       <c r="G22" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>131.0206200144773</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>115.9720978279075</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>239.8247518556274</v>
@@ -2304,7 +2304,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X22" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>225.1454739790328</v>
@@ -2368,10 +2368,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>40.061706087351</v>
       </c>
       <c r="T23" t="n">
-        <v>149.6157531058527</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -2383,7 +2383,7 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>109.5540470185009</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2478,10 +2478,10 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C25" t="n">
-        <v>170.8360944016073</v>
+        <v>55.96684102370048</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E25" t="n">
         <v>168.0604237117701</v>
@@ -2493,7 +2493,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>49.34995949258661</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2557,22 +2557,22 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>21.97692305979296</v>
+        <v>363.5509693851579</v>
       </c>
       <c r="H26" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2608,22 +2608,22 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2684,7 +2684,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>44.1748202942631</v>
+        <v>44.17482029426311</v>
       </c>
       <c r="T27" t="n">
         <v>124.8306395731037</v>
@@ -2712,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>189.9004325317972</v>
+        <v>50.73209343995514</v>
       </c>
       <c r="C28" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D28" t="n">
-        <v>49.34995949258704</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>62.46433369811444</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2797,19 +2797,19 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D29" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G29" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>93.53818910684734</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>40.06170608735098</v>
+        <v>40.061706087351</v>
       </c>
       <c r="T29" t="n">
         <v>209.6535390155789</v>
@@ -2851,13 +2851,13 @@
         <v>256.4799845637012</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>82.05674641009783</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2921,7 +2921,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>44.1748202942631</v>
+        <v>44.17482029426311</v>
       </c>
       <c r="T30" t="n">
         <v>124.8306395731037</v>
@@ -2949,19 +2949,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D31" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>104.8528596352489</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
         <v>163.0937685836068</v>
@@ -3000,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>113.1964271380696</v>
       </c>
       <c r="T31" t="n">
         <v>239.8247518556274</v>
@@ -3031,22 +3031,22 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F32" t="n">
-        <v>255.950850558607</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G32" t="n">
         <v>395.5076644073176</v>
       </c>
       <c r="H32" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,16 +3079,16 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>40.06170608735098</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T32" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -3097,7 +3097,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>210.853224914142</v>
       </c>
     </row>
     <row r="33">
@@ -3158,7 +3158,7 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>44.1748202942631</v>
+        <v>44.17482029426311</v>
       </c>
       <c r="T33" t="n">
         <v>124.8306395731037</v>
@@ -3198,16 +3198,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F34" t="n">
-        <v>43.27232368849861</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G34" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>131.0206200144773</v>
       </c>
       <c r="I34" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -3252,7 +3252,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>236.8727155831659</v>
       </c>
       <c r="Y34" t="n">
         <v>225.1454739790328</v>
@@ -3283,7 +3283,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>65.45709821928106</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,16 +3316,16 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>40.06170608735098</v>
+        <v>40.061706087351</v>
       </c>
       <c r="T35" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>256.4799845637012</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>275.1106372348586</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -3395,7 +3395,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>44.1748202942631</v>
+        <v>44.17482029426311</v>
       </c>
       <c r="T36" t="n">
         <v>124.8306395731037</v>
@@ -3429,7 +3429,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D37" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>168.0604237117701</v>
@@ -3438,13 +3438,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
-        <v>163.0937685836068</v>
+        <v>49.34995949258573</v>
       </c>
       <c r="H37" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,19 +3474,19 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>239.8247518556274</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W37" t="n">
-        <v>214.5646102646778</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X37" t="n">
         <v>242.9378371199217</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>176.0867819309703</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C38" t="n">
         <v>433.7610480884109</v>
@@ -3514,7 +3514,7 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>40.061706087351</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -3568,10 +3568,10 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>414.9510387864824</v>
+        <v>109.5540470185009</v>
       </c>
       <c r="Y38" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3632,7 +3632,7 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>44.1748202942631</v>
+        <v>44.17482029426311</v>
       </c>
       <c r="T39" t="n">
         <v>124.8306395731037</v>
@@ -3660,13 +3660,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D40" t="n">
-        <v>136.0835933007067</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E40" t="n">
         <v>168.0604237117701</v>
@@ -3675,13 +3675,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H40" t="n">
         <v>131.0206200144773</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>62.46433369811444</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,13 +3711,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>142.9822731108078</v>
+        <v>29.30026393667218</v>
       </c>
       <c r="T40" t="n">
         <v>239.8247518556274</v>
       </c>
       <c r="U40" t="n">
-        <v>275.6027656317444</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>284.0859530482738</v>
@@ -3729,7 +3729,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y40" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>361.9987888703328</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
         <v>433.7610480884109</v>
@@ -3790,10 +3790,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>40.06170608735101</v>
       </c>
       <c r="T41" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -3805,7 +3805,7 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>109.5540470185009</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -3836,7 +3836,7 @@
         <v>83.52738940623971</v>
       </c>
       <c r="H42" t="n">
-        <v>31.62322353306971</v>
+        <v>31.62322353306972</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3869,7 +3869,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>44.1748202942631</v>
+        <v>44.17482029426311</v>
       </c>
       <c r="T42" t="n">
         <v>124.8306395731037</v>
@@ -3897,16 +3897,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C43" t="n">
-        <v>139.5121758392958</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>162.6883753242419</v>
       </c>
       <c r="F43" t="n">
         <v>174.9399834978613</v>
@@ -3915,10 +3915,10 @@
         <v>163.0937685836068</v>
       </c>
       <c r="H43" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>62.46433369811443</v>
+        <v>62.46433369811444</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>239.8247518556274</v>
@@ -3966,7 +3966,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="44">
@@ -3976,25 +3976,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
-        <v>378.7447558512726</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4030,16 +4030,16 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>209.6535390155789</v>
+        <v>172.3976083576593</v>
       </c>
       <c r="U44" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -4073,7 +4073,7 @@
         <v>83.52738940623971</v>
       </c>
       <c r="H45" t="n">
-        <v>31.62322353306971</v>
+        <v>31.62322353306972</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>44.1748202942631</v>
+        <v>44.17482029426311</v>
       </c>
       <c r="T45" t="n">
         <v>124.8306395731037</v>
@@ -4137,25 +4137,25 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C46" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>68.32956683724676</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E46" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F46" t="n">
-        <v>174.9399834978613</v>
+        <v>5.348722239840659</v>
       </c>
       <c r="G46" t="n">
         <v>163.0937685836068</v>
       </c>
       <c r="H46" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>62.46433369811443</v>
+        <v>62.46433369811444</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,13 +4185,13 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>239.8247518556274</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V46" t="n">
         <v>284.0859530482738</v>
@@ -4200,7 +4200,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y46" t="n">
         <v>225.1454739790328</v>
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>339.898744606545</v>
+        <v>335.5310166316741</v>
       </c>
       <c r="C8" t="n">
-        <v>305.7966758303724</v>
+        <v>215.2442383059557</v>
       </c>
       <c r="D8" t="n">
-        <v>273.9272950452209</v>
+        <v>183.3748575208043</v>
       </c>
       <c r="E8" t="n">
-        <v>153.640516719503</v>
+        <v>153.6405167195035</v>
       </c>
       <c r="F8" t="n">
-        <v>129.8134911691148</v>
+        <v>129.8134911691153</v>
       </c>
       <c r="G8" t="n">
-        <v>129.8134911691148</v>
+        <v>129.8134911691153</v>
       </c>
       <c r="H8" t="n">
-        <v>9.52671284339686</v>
+        <v>9.526712843396897</v>
       </c>
       <c r="I8" t="n">
-        <v>23.5795474158557</v>
+        <v>23.57954741585575</v>
       </c>
       <c r="J8" t="n">
-        <v>55.41632306558026</v>
+        <v>55.41632306558044</v>
       </c>
       <c r="K8" t="n">
-        <v>103.1313969318069</v>
+        <v>103.1313969318072</v>
       </c>
       <c r="L8" t="n">
-        <v>162.3261653183093</v>
+        <v>162.3261653183099</v>
       </c>
       <c r="M8" t="n">
-        <v>228.1917507590928</v>
+        <v>228.1917507590936</v>
       </c>
       <c r="N8" t="n">
-        <v>295.1231102326576</v>
+        <v>295.1231102326587</v>
       </c>
       <c r="O8" t="n">
-        <v>358.3244950336418</v>
+        <v>358.3244950336431</v>
       </c>
       <c r="P8" t="n">
-        <v>412.2654147455663</v>
+        <v>412.2654147455679</v>
       </c>
       <c r="Q8" t="n">
-        <v>452.7727990245006</v>
+        <v>452.7727990245023</v>
       </c>
       <c r="R8" t="n">
-        <v>476.335642169843</v>
+        <v>476.3356421698448</v>
       </c>
       <c r="S8" t="n">
-        <v>476.335642169843</v>
+        <v>401.4050834648269</v>
       </c>
       <c r="T8" t="n">
-        <v>382.3207406398391</v>
+        <v>401.4050834648269</v>
       </c>
       <c r="U8" t="n">
-        <v>382.3207406398391</v>
+        <v>401.4050834648269</v>
       </c>
       <c r="V8" t="n">
-        <v>382.3207406398391</v>
+        <v>401.4050834648269</v>
       </c>
       <c r="W8" t="n">
-        <v>381.5056900912764</v>
+        <v>377.1379621164056</v>
       </c>
       <c r="X8" t="n">
-        <v>366.4036307109912</v>
+        <v>362.0359027361203</v>
       </c>
       <c r="Y8" t="n">
-        <v>362.1579110510487</v>
+        <v>357.7901830761778</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>367.3015692832766</v>
+        <v>176.1102575723781</v>
       </c>
       <c r="C9" t="n">
-        <v>367.3015692832766</v>
+        <v>176.1102575723781</v>
       </c>
       <c r="D9" t="n">
-        <v>272.2112804298299</v>
+        <v>176.1102575723781</v>
       </c>
       <c r="E9" t="n">
-        <v>178.0908657567836</v>
+        <v>92.91055122723527</v>
       </c>
       <c r="F9" t="n">
-        <v>94.70702737294526</v>
+        <v>9.526712843396897</v>
       </c>
       <c r="G9" t="n">
-        <v>9.52671284339686</v>
+        <v>9.526712843396897</v>
       </c>
       <c r="H9" t="n">
-        <v>9.52671284339686</v>
+        <v>9.526712843396897</v>
       </c>
       <c r="I9" t="n">
-        <v>16.4367847511468</v>
+        <v>16.43678475114687</v>
       </c>
       <c r="J9" t="n">
-        <v>35.39855022437503</v>
+        <v>35.39855022437517</v>
       </c>
       <c r="K9" t="n">
-        <v>67.8072276036909</v>
+        <v>67.80722760369117</v>
       </c>
       <c r="L9" t="n">
-        <v>111.3846938193802</v>
+        <v>111.3846938193806</v>
       </c>
       <c r="M9" t="n">
-        <v>162.237541476796</v>
+        <v>162.2375414767967</v>
       </c>
       <c r="N9" t="n">
-        <v>214.4363126943328</v>
+        <v>214.4363126943336</v>
       </c>
       <c r="O9" t="n">
-        <v>262.1879905006654</v>
+        <v>262.1879905006664</v>
       </c>
       <c r="P9" t="n">
-        <v>300.5129218025275</v>
+        <v>332.8233691018331</v>
       </c>
       <c r="Q9" t="n">
-        <v>358.4425707328069</v>
+        <v>358.4425707328083</v>
       </c>
       <c r="R9" t="n">
-        <v>476.335642169843</v>
+        <v>476.3356421698448</v>
       </c>
       <c r="S9" t="n">
-        <v>476.335642169843</v>
+        <v>416.6838142238149</v>
       </c>
       <c r="T9" t="n">
-        <v>476.335642169843</v>
+        <v>416.6838142238149</v>
       </c>
       <c r="U9" t="n">
-        <v>476.335642169843</v>
+        <v>416.6838142238149</v>
       </c>
       <c r="V9" t="n">
-        <v>367.3015692832766</v>
+        <v>416.6838142238149</v>
       </c>
       <c r="W9" t="n">
-        <v>367.3015692832766</v>
+        <v>296.3970358980965</v>
       </c>
       <c r="X9" t="n">
-        <v>367.3015692832766</v>
+        <v>176.1102575723781</v>
       </c>
       <c r="Y9" t="n">
-        <v>367.3015692832766</v>
+        <v>176.1102575723781</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>222.063470795009</v>
+        <v>342.3502491207284</v>
       </c>
       <c r="C10" t="n">
-        <v>222.063470795009</v>
+        <v>250.1002694948337</v>
       </c>
       <c r="D10" t="n">
-        <v>129.8134911691148</v>
+        <v>129.8134911691153</v>
       </c>
       <c r="E10" t="n">
-        <v>9.52671284339686</v>
+        <v>9.526712843396897</v>
       </c>
       <c r="F10" t="n">
-        <v>9.52671284339686</v>
+        <v>9.526712843396897</v>
       </c>
       <c r="G10" t="n">
-        <v>9.52671284339686</v>
+        <v>9.526712843396897</v>
       </c>
       <c r="H10" t="n">
-        <v>9.52671284339686</v>
+        <v>9.526712843396897</v>
       </c>
       <c r="I10" t="n">
-        <v>9.52671284339686</v>
+        <v>9.526712843396897</v>
       </c>
       <c r="J10" t="n">
-        <v>108.0024003011149</v>
+        <v>108.002400301115</v>
       </c>
       <c r="K10" t="n">
-        <v>225.8954717381511</v>
+        <v>225.8954717381516</v>
       </c>
       <c r="L10" t="n">
-        <v>250.9111875026082</v>
+        <v>262.1854494398056</v>
       </c>
       <c r="M10" t="n">
-        <v>288.5610142512595</v>
+        <v>288.5610142512606</v>
       </c>
       <c r="N10" t="n">
-        <v>314.3094270837842</v>
+        <v>314.3094270837854</v>
       </c>
       <c r="O10" t="n">
-        <v>338.0922538360026</v>
+        <v>338.0922538360039</v>
       </c>
       <c r="P10" t="n">
-        <v>358.4425707328069</v>
+        <v>358.4425707328083</v>
       </c>
       <c r="Q10" t="n">
-        <v>476.335642169843</v>
+        <v>476.3356421698448</v>
       </c>
       <c r="R10" t="n">
-        <v>462.6370274464449</v>
+        <v>462.6370274464468</v>
       </c>
       <c r="S10" t="n">
-        <v>462.6370274464449</v>
+        <v>462.6370274464468</v>
       </c>
       <c r="T10" t="n">
-        <v>462.6370274464449</v>
+        <v>462.6370274464468</v>
       </c>
       <c r="U10" t="n">
-        <v>342.350249120727</v>
+        <v>342.3502491207284</v>
       </c>
       <c r="V10" t="n">
-        <v>342.350249120727</v>
+        <v>342.3502491207284</v>
       </c>
       <c r="W10" t="n">
-        <v>222.063470795009</v>
+        <v>342.3502491207284</v>
       </c>
       <c r="X10" t="n">
-        <v>222.063470795009</v>
+        <v>342.3502491207284</v>
       </c>
       <c r="Y10" t="n">
-        <v>222.063470795009</v>
+        <v>342.3502491207284</v>
       </c>
     </row>
     <row r="11">
@@ -5017,37 +5017,37 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1782.900983623584</v>
+        <v>1590.483051967699</v>
       </c>
       <c r="C11" t="n">
-        <v>1344.758510807007</v>
+        <v>1152.340579151123</v>
       </c>
       <c r="D11" t="n">
-        <v>908.8487259814518</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="E11" t="n">
-        <v>475.073981139747</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="F11" t="n">
-        <v>47.20655154895474</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="G11" t="n">
-        <v>47.20655154895474</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="H11" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I11" t="n">
-        <v>118.4065018001353</v>
+        <v>118.4065018001355</v>
       </c>
       <c r="J11" t="n">
-        <v>276.0532770435809</v>
+        <v>276.0532770435807</v>
       </c>
       <c r="K11" t="n">
-        <v>512.3249274228019</v>
+        <v>512.3249274228017</v>
       </c>
       <c r="L11" t="n">
-        <v>805.4408022867029</v>
+        <v>805.4408022867025</v>
       </c>
       <c r="M11" t="n">
         <v>1131.58869045549</v>
@@ -5059,7 +5059,7 @@
         <v>1775.96950697326</v>
       </c>
       <c r="P11" t="n">
-        <v>2043.069798152529</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q11" t="n">
         <v>2243.650993163596</v>
@@ -5074,19 +5074,19 @@
         <v>2108.089956131646</v>
       </c>
       <c r="U11" t="n">
-        <v>1849.01926465316</v>
+        <v>1995.338506556666</v>
       </c>
       <c r="V11" t="n">
-        <v>1782.900983623584</v>
+        <v>1995.338506556666</v>
       </c>
       <c r="W11" t="n">
-        <v>1782.900983623584</v>
+        <v>1590.483051967699</v>
       </c>
       <c r="X11" t="n">
-        <v>1782.900983623584</v>
+        <v>1590.483051967699</v>
       </c>
       <c r="Y11" t="n">
-        <v>1782.900983623584</v>
+        <v>1590.483051967699</v>
       </c>
     </row>
     <row r="12">
@@ -5099,25 +5099,25 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C12" t="n">
-        <v>436.1148439030331</v>
+        <v>436.114843903033</v>
       </c>
       <c r="D12" t="n">
-        <v>341.0245550495864</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E12" t="n">
-        <v>246.9041403765401</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F12" t="n">
-        <v>163.5203019927017</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G12" t="n">
-        <v>79.1492015823585</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H12" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I12" t="n">
-        <v>81.42328772043086</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J12" t="n">
         <v>175.316627066898</v>
@@ -5126,10 +5126,10 @@
         <v>335.7952991210682</v>
       </c>
       <c r="L12" t="n">
-        <v>551.5786779960906</v>
+        <v>551.5786779960905</v>
       </c>
       <c r="M12" t="n">
-        <v>803.387703298788</v>
+        <v>803.3877032987879</v>
       </c>
       <c r="N12" t="n">
         <v>1061.861364220108</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>861.4735194517295</v>
+        <v>908.8655996749508</v>
       </c>
       <c r="C13" t="n">
-        <v>688.9118079349545</v>
+        <v>736.3038881581757</v>
       </c>
       <c r="D13" t="n">
-        <v>688.9118079349545</v>
+        <v>570.4258953596984</v>
       </c>
       <c r="E13" t="n">
-        <v>584.0941331591162</v>
+        <v>400.6678916104357</v>
       </c>
       <c r="F13" t="n">
-        <v>407.3870791208724</v>
+        <v>223.9608375721919</v>
       </c>
       <c r="G13" t="n">
-        <v>242.6458987333908</v>
+        <v>59.21965718471029</v>
       </c>
       <c r="H13" t="n">
-        <v>110.3018381127067</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I13" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="J13" t="n">
         <v>192.6919004158277</v>
@@ -5205,19 +5205,19 @@
         <v>564.2504555545214</v>
       </c>
       <c r="L13" t="n">
-        <v>688.1212571728194</v>
+        <v>1106.33113894078</v>
       </c>
       <c r="M13" t="n">
-        <v>1272.302332591134</v>
+        <v>1690.512214359095</v>
       </c>
       <c r="N13" t="n">
-        <v>1399.801244395024</v>
+        <v>1887.361501150536</v>
       </c>
       <c r="O13" t="n">
-        <v>1657.620488527957</v>
+        <v>2005.127382498298</v>
       </c>
       <c r="P13" t="n">
-        <v>2105.896438675982</v>
+        <v>2105.896438675981</v>
       </c>
       <c r="Q13" t="n">
         <v>2343.856484770969</v>
@@ -5226,25 +5226,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S13" t="n">
-        <v>2360.327577447737</v>
+        <v>2215.901038951971</v>
       </c>
       <c r="T13" t="n">
-        <v>2118.080353351143</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="U13" t="n">
-        <v>1839.693721399886</v>
+        <v>1695.267182904121</v>
       </c>
       <c r="V13" t="n">
-        <v>1552.738213270317</v>
+        <v>1408.311674774551</v>
       </c>
       <c r="W13" t="n">
-        <v>1280.711808856609</v>
+        <v>1136.285270360843</v>
       </c>
       <c r="X13" t="n">
-        <v>1280.711808856609</v>
+        <v>1136.285270360843</v>
       </c>
       <c r="Y13" t="n">
-        <v>1053.292138170717</v>
+        <v>908.8655996749508</v>
       </c>
     </row>
     <row r="14">
@@ -5254,40 +5254,40 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>316.9281030050443</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="C14" t="n">
-        <v>316.9281030050443</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="D14" t="n">
-        <v>316.9281030050443</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="E14" t="n">
-        <v>316.9281030050443</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="F14" t="n">
-        <v>316.9281030050443</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="G14" t="n">
-        <v>316.9281030050443</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H14" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I14" t="n">
         <v>118.4065018001355</v>
       </c>
       <c r="J14" t="n">
-        <v>276.0532770435808</v>
+        <v>276.0532770435807</v>
       </c>
       <c r="K14" t="n">
-        <v>512.3249274228018</v>
+        <v>512.3249274228017</v>
       </c>
       <c r="L14" t="n">
-        <v>805.4408022867025</v>
+        <v>805.4408022867023</v>
       </c>
       <c r="M14" t="n">
-        <v>1131.58869045549</v>
+        <v>1131.588690455489</v>
       </c>
       <c r="N14" t="n">
         <v>1463.013992431967</v>
@@ -5296,7 +5296,7 @@
         <v>1775.96950697326</v>
       </c>
       <c r="P14" t="n">
-        <v>2043.069798152529</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q14" t="n">
         <v>2243.650993163596</v>
@@ -5308,22 +5308,22 @@
         <v>2360.327577447737</v>
       </c>
       <c r="T14" t="n">
-        <v>2148.556325916849</v>
+        <v>2307.838033188358</v>
       </c>
       <c r="U14" t="n">
-        <v>1889.485634438363</v>
+        <v>2048.767341709872</v>
       </c>
       <c r="V14" t="n">
-        <v>1526.86868437219</v>
+        <v>1686.150391643699</v>
       </c>
       <c r="W14" t="n">
-        <v>1122.013229783223</v>
+        <v>1281.294937054732</v>
       </c>
       <c r="X14" t="n">
-        <v>725.214226705391</v>
+        <v>1281.294937054732</v>
       </c>
       <c r="Y14" t="n">
-        <v>316.9281030050443</v>
+        <v>873.0088133543854</v>
       </c>
     </row>
     <row r="15">
@@ -5339,22 +5339,22 @@
         <v>436.1148439030331</v>
       </c>
       <c r="D15" t="n">
-        <v>341.0245550495864</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E15" t="n">
-        <v>246.9041403765401</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F15" t="n">
-        <v>163.5203019927017</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G15" t="n">
-        <v>79.1492015823585</v>
+        <v>79.14920158235849</v>
       </c>
       <c r="H15" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I15" t="n">
-        <v>81.42328772043086</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J15" t="n">
         <v>175.316627066898</v>
@@ -5363,7 +5363,7 @@
         <v>335.7952991210682</v>
       </c>
       <c r="L15" t="n">
-        <v>551.5786779960906</v>
+        <v>551.5786779960905</v>
       </c>
       <c r="M15" t="n">
         <v>803.387703298788</v>
@@ -5412,49 +5412,49 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1092.291841223631</v>
+        <v>616.0817647851416</v>
       </c>
       <c r="C16" t="n">
-        <v>919.7301297068562</v>
+        <v>443.5200532683665</v>
       </c>
       <c r="D16" t="n">
-        <v>753.852136908379</v>
+        <v>443.5200532683665</v>
       </c>
       <c r="E16" t="n">
-        <v>584.0941331591162</v>
+        <v>443.5200532683665</v>
       </c>
       <c r="F16" t="n">
-        <v>407.3870791208724</v>
+        <v>344.2917925571204</v>
       </c>
       <c r="G16" t="n">
-        <v>242.6458987333908</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="H16" t="n">
-        <v>110.3018381127067</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I16" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="J16" t="n">
-        <v>192.6919004158277</v>
+        <v>106.1122152511379</v>
       </c>
       <c r="K16" t="n">
-        <v>564.2504555545214</v>
+        <v>202.912315818696</v>
       </c>
       <c r="L16" t="n">
-        <v>1106.33113894078</v>
+        <v>744.992999204955</v>
       </c>
       <c r="M16" t="n">
-        <v>1412.355695376305</v>
+        <v>875.5973915434845</v>
       </c>
       <c r="N16" t="n">
-        <v>1539.854607180195</v>
+        <v>1445.355106505019</v>
       </c>
       <c r="O16" t="n">
-        <v>1657.620488527956</v>
+        <v>1982.790237078562</v>
       </c>
       <c r="P16" t="n">
-        <v>2105.896438675981</v>
+        <v>2274.089213540313</v>
       </c>
       <c r="Q16" t="n">
         <v>2343.856484770969</v>
@@ -5472,16 +5472,16 @@
         <v>1839.693721399886</v>
       </c>
       <c r="V16" t="n">
-        <v>1552.738213270317</v>
+        <v>1552.738213270316</v>
       </c>
       <c r="W16" t="n">
-        <v>1280.711808856609</v>
+        <v>1280.711808856608</v>
       </c>
       <c r="X16" t="n">
-        <v>1280.711808856609</v>
+        <v>1035.320054190021</v>
       </c>
       <c r="Y16" t="n">
-        <v>1280.711808856609</v>
+        <v>807.9003835041287</v>
       </c>
     </row>
     <row r="17">
@@ -5491,49 +5491,49 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>703.5160999904164</v>
+        <v>885.0319878285612</v>
       </c>
       <c r="C17" t="n">
-        <v>265.3736271738397</v>
+        <v>446.8895150119845</v>
       </c>
       <c r="D17" t="n">
-        <v>47.20655154895473</v>
+        <v>446.8895150119845</v>
       </c>
       <c r="E17" t="n">
-        <v>47.20655154895473</v>
+        <v>446.8895150119845</v>
       </c>
       <c r="F17" t="n">
-        <v>47.20655154895473</v>
+        <v>446.8895150119845</v>
       </c>
       <c r="G17" t="n">
-        <v>47.20655154895473</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="H17" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I17" t="n">
-        <v>118.4065018001353</v>
+        <v>118.4065018001357</v>
       </c>
       <c r="J17" t="n">
-        <v>276.0532770435806</v>
+        <v>276.0532770435809</v>
       </c>
       <c r="K17" t="n">
-        <v>512.3249274228016</v>
+        <v>512.3249274228019</v>
       </c>
       <c r="L17" t="n">
-        <v>805.4408022867023</v>
+        <v>805.4408022867026</v>
       </c>
       <c r="M17" t="n">
-        <v>1131.588690455489</v>
+        <v>1131.58869045549</v>
       </c>
       <c r="N17" t="n">
         <v>1463.013992431967</v>
       </c>
       <c r="O17" t="n">
-        <v>1775.969506973259</v>
+        <v>1775.96950697326</v>
       </c>
       <c r="P17" t="n">
-        <v>2043.069798152528</v>
+        <v>2043.069798152529</v>
       </c>
       <c r="Q17" t="n">
         <v>2243.650993163596</v>
@@ -5548,19 +5548,19 @@
         <v>2319.861207662534</v>
       </c>
       <c r="U17" t="n">
-        <v>2319.861207662534</v>
+        <v>2060.790516184048</v>
       </c>
       <c r="V17" t="n">
-        <v>1957.24425759636</v>
+        <v>1698.173566117875</v>
       </c>
       <c r="W17" t="n">
-        <v>1957.24425759636</v>
+        <v>1293.318111528908</v>
       </c>
       <c r="X17" t="n">
-        <v>1538.101794175671</v>
+        <v>1293.318111528908</v>
       </c>
       <c r="Y17" t="n">
-        <v>1129.815670475324</v>
+        <v>885.0319878285612</v>
       </c>
     </row>
     <row r="18">
@@ -5573,7 +5573,7 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C18" t="n">
-        <v>436.114843903033</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D18" t="n">
         <v>341.0245550495863</v>
@@ -5585,13 +5585,13 @@
         <v>163.5203019927016</v>
       </c>
       <c r="G18" t="n">
-        <v>79.14920158235847</v>
+        <v>79.1492015823585</v>
       </c>
       <c r="H18" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I18" t="n">
-        <v>81.42328772043084</v>
+        <v>81.42328772043086</v>
       </c>
       <c r="J18" t="n">
         <v>175.316627066898</v>
@@ -5649,49 +5649,49 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>616.0817647851416</v>
+        <v>616.081764785142</v>
       </c>
       <c r="C19" t="n">
-        <v>616.0817647851416</v>
+        <v>443.520053268367</v>
       </c>
       <c r="D19" t="n">
-        <v>616.0817647851416</v>
+        <v>443.520053268367</v>
       </c>
       <c r="E19" t="n">
-        <v>520.9988465953642</v>
+        <v>273.7620495191042</v>
       </c>
       <c r="F19" t="n">
-        <v>344.2917925571204</v>
+        <v>97.05499548086041</v>
       </c>
       <c r="G19" t="n">
-        <v>179.5506121696388</v>
+        <v>97.05499548086041</v>
       </c>
       <c r="H19" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I19" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="J19" t="n">
-        <v>192.6919004158277</v>
+        <v>106.1122152511379</v>
       </c>
       <c r="K19" t="n">
-        <v>564.2504555545214</v>
+        <v>202.912315818696</v>
       </c>
       <c r="L19" t="n">
-        <v>1106.33113894078</v>
+        <v>744.992999204955</v>
       </c>
       <c r="M19" t="n">
-        <v>1412.355695376305</v>
+        <v>875.5973915434845</v>
       </c>
       <c r="N19" t="n">
-        <v>1539.854607180194</v>
+        <v>1445.355106505019</v>
       </c>
       <c r="O19" t="n">
-        <v>1657.620488527956</v>
+        <v>1982.790237078562</v>
       </c>
       <c r="P19" t="n">
-        <v>2105.896438675981</v>
+        <v>2274.089213540314</v>
       </c>
       <c r="Q19" t="n">
         <v>2343.856484770969</v>
@@ -5709,16 +5709,16 @@
         <v>1839.693721399886</v>
       </c>
       <c r="V19" t="n">
-        <v>1552.738213270316</v>
+        <v>1552.738213270317</v>
       </c>
       <c r="W19" t="n">
-        <v>1280.711808856608</v>
+        <v>1280.711808856609</v>
       </c>
       <c r="X19" t="n">
         <v>1035.320054190021</v>
       </c>
       <c r="Y19" t="n">
-        <v>807.9003835041287</v>
+        <v>807.9003835041292</v>
       </c>
     </row>
     <row r="20">
@@ -5728,19 +5728,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>701.7439652528263</v>
+        <v>1284.09203812199</v>
       </c>
       <c r="C20" t="n">
-        <v>263.6014924362497</v>
+        <v>845.9495653054137</v>
       </c>
       <c r="D20" t="n">
-        <v>263.6014924362497</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="E20" t="n">
-        <v>263.6014924362497</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="F20" t="n">
-        <v>47.20655154895474</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="G20" t="n">
         <v>47.20655154895474</v>
@@ -5752,13 +5752,13 @@
         <v>118.4065018001355</v>
       </c>
       <c r="J20" t="n">
-        <v>276.0532770435807</v>
+        <v>276.0532770435808</v>
       </c>
       <c r="K20" t="n">
-        <v>512.3249274228017</v>
+        <v>512.3249274228018</v>
       </c>
       <c r="L20" t="n">
-        <v>805.4408022867024</v>
+        <v>805.4408022867025</v>
       </c>
       <c r="M20" t="n">
         <v>1131.58869045549</v>
@@ -5779,25 +5779,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S20" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T20" t="n">
-        <v>2360.327577447737</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U20" t="n">
-        <v>2360.327577447737</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="V20" t="n">
-        <v>2360.327577447737</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="W20" t="n">
-        <v>1955.47212285877</v>
+        <v>1703.23450154268</v>
       </c>
       <c r="X20" t="n">
-        <v>1536.329659438081</v>
+        <v>1284.09203812199</v>
       </c>
       <c r="Y20" t="n">
-        <v>1128.043535737734</v>
+        <v>1284.09203812199</v>
       </c>
     </row>
     <row r="21">
@@ -5822,7 +5822,7 @@
         <v>163.5203019927017</v>
       </c>
       <c r="G21" t="n">
-        <v>79.14920158235861</v>
+        <v>79.1492015823585</v>
       </c>
       <c r="H21" t="n">
         <v>47.20655154895474</v>
@@ -5886,49 +5886,49 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>690.7568503446269</v>
+        <v>861.4735194517295</v>
       </c>
       <c r="C22" t="n">
-        <v>690.7568503446269</v>
+        <v>688.9118079349545</v>
       </c>
       <c r="D22" t="n">
-        <v>690.7568503446269</v>
+        <v>523.0338151364772</v>
       </c>
       <c r="E22" t="n">
-        <v>520.9988465953642</v>
+        <v>353.2758113872144</v>
       </c>
       <c r="F22" t="n">
-        <v>344.2917925571204</v>
+        <v>242.6458987333908</v>
       </c>
       <c r="G22" t="n">
-        <v>179.5506121696388</v>
+        <v>242.6458987333908</v>
       </c>
       <c r="H22" t="n">
-        <v>47.20655154895474</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="I22" t="n">
         <v>47.20655154895474</v>
       </c>
       <c r="J22" t="n">
-        <v>192.6919004158277</v>
+        <v>106.1122152511379</v>
       </c>
       <c r="K22" t="n">
-        <v>564.2504555545214</v>
+        <v>358.0754347909399</v>
       </c>
       <c r="L22" t="n">
-        <v>1106.33113894078</v>
+        <v>481.9462364092378</v>
       </c>
       <c r="M22" t="n">
-        <v>1236.93553127931</v>
+        <v>1066.127311827553</v>
       </c>
       <c r="N22" t="n">
-        <v>1364.434443083199</v>
+        <v>1635.885026789087</v>
       </c>
       <c r="O22" t="n">
-        <v>1657.620488527956</v>
+        <v>2173.32015736263</v>
       </c>
       <c r="P22" t="n">
-        <v>2105.896438675981</v>
+        <v>2274.089213540314</v>
       </c>
       <c r="Q22" t="n">
         <v>2343.856484770969</v>
@@ -5937,25 +5937,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S22" t="n">
-        <v>2243.184044288234</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T22" t="n">
-        <v>2000.936820191641</v>
+        <v>2118.080353351143</v>
       </c>
       <c r="U22" t="n">
-        <v>1722.550188240384</v>
+        <v>1839.693721399886</v>
       </c>
       <c r="V22" t="n">
-        <v>1435.594680110815</v>
+        <v>1552.738213270317</v>
       </c>
       <c r="W22" t="n">
-        <v>1163.568275697106</v>
+        <v>1280.711808856609</v>
       </c>
       <c r="X22" t="n">
-        <v>918.1765210305186</v>
+        <v>1280.711808856609</v>
       </c>
       <c r="Y22" t="n">
-        <v>690.7568503446269</v>
+        <v>1053.292138170717</v>
       </c>
     </row>
     <row r="23">
@@ -5977,16 +5977,16 @@
         <v>475.073981139747</v>
       </c>
       <c r="F23" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="G23" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="H23" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I23" t="n">
-        <v>118.4065018001354</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J23" t="n">
         <v>276.0532770435806</v>
@@ -5995,40 +5995,40 @@
         <v>512.3249274228015</v>
       </c>
       <c r="L23" t="n">
-        <v>805.4408022867025</v>
+        <v>805.440802286702</v>
       </c>
       <c r="M23" t="n">
-        <v>1131.58869045549</v>
+        <v>1131.588690455489</v>
       </c>
       <c r="N23" t="n">
-        <v>1463.013992431967</v>
+        <v>1463.013992431966</v>
       </c>
       <c r="O23" t="n">
-        <v>1775.96950697326</v>
+        <v>1775.969506973259</v>
       </c>
       <c r="P23" t="n">
-        <v>2043.069798152529</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q23" t="n">
         <v>2243.650993163596</v>
       </c>
       <c r="R23" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S23" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="T23" t="n">
-        <v>2209.200554108492</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="U23" t="n">
-        <v>2209.200554108492</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="V23" t="n">
-        <v>2209.200554108492</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="W23" t="n">
-        <v>2209.200554108492</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="X23" t="n">
         <v>2209.200554108492</v>
@@ -6047,46 +6047,46 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C24" t="n">
-        <v>436.1148439030331</v>
+        <v>436.114843903033</v>
       </c>
       <c r="D24" t="n">
-        <v>341.0245550495864</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E24" t="n">
-        <v>246.9041403765401</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F24" t="n">
-        <v>163.5203019927017</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G24" t="n">
-        <v>79.1492015823585</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H24" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I24" t="n">
-        <v>81.42328772043086</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J24" t="n">
         <v>175.316627066898</v>
       </c>
       <c r="K24" t="n">
-        <v>335.7952991210682</v>
+        <v>335.7952991210681</v>
       </c>
       <c r="L24" t="n">
-        <v>551.5786779960906</v>
+        <v>551.5786779960904</v>
       </c>
       <c r="M24" t="n">
-        <v>803.387703298788</v>
+        <v>803.3877032987878</v>
       </c>
       <c r="N24" t="n">
         <v>1061.861364220108</v>
       </c>
       <c r="O24" t="n">
-        <v>1298.314267034639</v>
+        <v>1298.314267034638</v>
       </c>
       <c r="P24" t="n">
-        <v>1488.088567599445</v>
+        <v>1488.088567599444</v>
       </c>
       <c r="Q24" t="n">
         <v>1614.947661807679</v>
@@ -6123,58 +6123,58 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>616.081764785142</v>
+        <v>616.0817647851411</v>
       </c>
       <c r="C25" t="n">
-        <v>443.520053268367</v>
+        <v>559.5496021349386</v>
       </c>
       <c r="D25" t="n">
-        <v>443.520053268367</v>
+        <v>393.6716093364612</v>
       </c>
       <c r="E25" t="n">
-        <v>273.7620495191042</v>
+        <v>223.9136055871985</v>
       </c>
       <c r="F25" t="n">
-        <v>97.05499548086041</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="G25" t="n">
-        <v>97.05499548086041</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="H25" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I25" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="J25" t="n">
-        <v>106.1122152511379</v>
+        <v>192.6919004158277</v>
       </c>
       <c r="K25" t="n">
-        <v>202.912315818696</v>
+        <v>564.2504555545214</v>
       </c>
       <c r="L25" t="n">
-        <v>481.9462364092383</v>
+        <v>688.1212571728194</v>
       </c>
       <c r="M25" t="n">
-        <v>1066.127311827553</v>
+        <v>1272.302332591134</v>
       </c>
       <c r="N25" t="n">
-        <v>1635.885026789087</v>
+        <v>1399.801244395024</v>
       </c>
       <c r="O25" t="n">
-        <v>2173.32015736263</v>
+        <v>1937.236374968567</v>
       </c>
       <c r="P25" t="n">
-        <v>2274.089213540314</v>
+        <v>2105.896438675981</v>
       </c>
       <c r="Q25" t="n">
         <v>2343.856484770969</v>
       </c>
       <c r="R25" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S25" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="T25" t="n">
         <v>2118.080353351143</v>
@@ -6183,16 +6183,16 @@
         <v>1839.693721399886</v>
       </c>
       <c r="V25" t="n">
-        <v>1552.738213270317</v>
+        <v>1552.738213270316</v>
       </c>
       <c r="W25" t="n">
-        <v>1280.711808856609</v>
+        <v>1280.711808856608</v>
       </c>
       <c r="X25" t="n">
-        <v>1035.320054190021</v>
+        <v>1035.32005419002</v>
       </c>
       <c r="Y25" t="n">
-        <v>807.9003835041292</v>
+        <v>807.9003835041283</v>
       </c>
     </row>
     <row r="26">
@@ -6202,37 +6202,37 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>339.1270151866534</v>
+        <v>1722.256755431941</v>
       </c>
       <c r="C26" t="n">
-        <v>339.1270151866534</v>
+        <v>1284.114282615365</v>
       </c>
       <c r="D26" t="n">
-        <v>339.1270151866534</v>
+        <v>848.204497789809</v>
       </c>
       <c r="E26" t="n">
-        <v>339.1270151866534</v>
+        <v>414.4297529481042</v>
       </c>
       <c r="F26" t="n">
-        <v>339.1270151866534</v>
+        <v>414.4297529481042</v>
       </c>
       <c r="G26" t="n">
-        <v>316.9281030050443</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H26" t="n">
-        <v>47.20655154895475</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I26" t="n">
         <v>118.4065018001357</v>
       </c>
       <c r="J26" t="n">
-        <v>276.053277043581</v>
+        <v>276.0532770435809</v>
       </c>
       <c r="K26" t="n">
-        <v>512.3249274228021</v>
+        <v>512.3249274228018</v>
       </c>
       <c r="L26" t="n">
-        <v>805.4408022867029</v>
+        <v>805.4408022867025</v>
       </c>
       <c r="M26" t="n">
         <v>1131.58869045549</v>
@@ -6244,10 +6244,10 @@
         <v>1775.96950697326</v>
       </c>
       <c r="P26" t="n">
-        <v>2043.069798152529</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q26" t="n">
-        <v>2243.650993163597</v>
+        <v>2243.650993163596</v>
       </c>
       <c r="R26" t="n">
         <v>2360.327577447737</v>
@@ -6256,22 +6256,22 @@
         <v>2360.327577447737</v>
       </c>
       <c r="T26" t="n">
-        <v>2360.327577447737</v>
+        <v>2148.556325916849</v>
       </c>
       <c r="U26" t="n">
-        <v>2360.327577447737</v>
+        <v>2148.556325916849</v>
       </c>
       <c r="V26" t="n">
-        <v>1997.710627381564</v>
+        <v>2148.556325916849</v>
       </c>
       <c r="W26" t="n">
-        <v>1592.855172792597</v>
+        <v>2148.556325916849</v>
       </c>
       <c r="X26" t="n">
-        <v>1173.712709371908</v>
+        <v>2148.556325916849</v>
       </c>
       <c r="Y26" t="n">
-        <v>765.4265856715612</v>
+        <v>2148.556325916849</v>
       </c>
     </row>
     <row r="27">
@@ -6284,31 +6284,31 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C27" t="n">
-        <v>436.1148439030331</v>
+        <v>436.114843903033</v>
       </c>
       <c r="D27" t="n">
-        <v>341.0245550495864</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E27" t="n">
-        <v>246.9041403765401</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F27" t="n">
-        <v>163.5203019927017</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G27" t="n">
-        <v>79.1492015823585</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H27" t="n">
-        <v>47.20655154895475</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I27" t="n">
-        <v>81.42328772043086</v>
+        <v>81.42328772043101</v>
       </c>
       <c r="J27" t="n">
-        <v>175.316627066898</v>
+        <v>175.3166270668981</v>
       </c>
       <c r="K27" t="n">
-        <v>335.7952991210682</v>
+        <v>335.7952991210683</v>
       </c>
       <c r="L27" t="n">
         <v>551.5786779960906</v>
@@ -6360,52 +6360,52 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>616.0817647851425</v>
+        <v>756.6558446758912</v>
       </c>
       <c r="C28" t="n">
-        <v>443.5200532683674</v>
+        <v>584.0941331591162</v>
       </c>
       <c r="D28" t="n">
-        <v>393.6716093364613</v>
+        <v>584.0941331591162</v>
       </c>
       <c r="E28" t="n">
-        <v>223.9136055871986</v>
+        <v>584.0941331591162</v>
       </c>
       <c r="F28" t="n">
-        <v>47.20655154895475</v>
+        <v>407.3870791208724</v>
       </c>
       <c r="G28" t="n">
-        <v>47.20655154895475</v>
+        <v>242.6458987333908</v>
       </c>
       <c r="H28" t="n">
-        <v>47.20655154895475</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="I28" t="n">
-        <v>47.20655154895475</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="J28" t="n">
-        <v>106.1122152511379</v>
+        <v>192.6919004158277</v>
       </c>
       <c r="K28" t="n">
-        <v>202.9123158186961</v>
+        <v>289.4920009833859</v>
       </c>
       <c r="L28" t="n">
-        <v>588.0160255186817</v>
+        <v>831.5726843696448</v>
       </c>
       <c r="M28" t="n">
-        <v>718.6204178572111</v>
+        <v>962.1770767081742</v>
       </c>
       <c r="N28" t="n">
-        <v>1288.378132818745</v>
+        <v>1531.934791669708</v>
       </c>
       <c r="O28" t="n">
-        <v>1825.813263392289</v>
+        <v>1657.620488527956</v>
       </c>
       <c r="P28" t="n">
-        <v>2274.089213540314</v>
+        <v>2105.896438675981</v>
       </c>
       <c r="Q28" t="n">
-        <v>2343.85648477097</v>
+        <v>2343.856484770969</v>
       </c>
       <c r="R28" t="n">
         <v>2360.327577447737</v>
@@ -6414,22 +6414,22 @@
         <v>2360.327577447737</v>
       </c>
       <c r="T28" t="n">
-        <v>2118.080353351144</v>
+        <v>2118.080353351143</v>
       </c>
       <c r="U28" t="n">
-        <v>1839.693721399887</v>
+        <v>1839.693721399886</v>
       </c>
       <c r="V28" t="n">
-        <v>1552.738213270317</v>
+        <v>1552.738213270316</v>
       </c>
       <c r="W28" t="n">
-        <v>1280.711808856609</v>
+        <v>1280.711808856608</v>
       </c>
       <c r="X28" t="n">
         <v>1035.320054190021</v>
       </c>
       <c r="Y28" t="n">
-        <v>807.9003835041296</v>
+        <v>807.9003835041287</v>
       </c>
     </row>
     <row r="29">
@@ -6439,37 +6439,37 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1849.01926465316</v>
+        <v>1346.991198798029</v>
       </c>
       <c r="C29" t="n">
-        <v>1410.876791836584</v>
+        <v>908.8487259814518</v>
       </c>
       <c r="D29" t="n">
-        <v>974.9670070110283</v>
+        <v>908.8487259814518</v>
       </c>
       <c r="E29" t="n">
-        <v>541.1922621693234</v>
+        <v>475.073981139747</v>
       </c>
       <c r="F29" t="n">
-        <v>541.1922621693234</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="G29" t="n">
-        <v>141.6895708488005</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H29" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I29" t="n">
-        <v>118.4065018001354</v>
+        <v>118.4065018001357</v>
       </c>
       <c r="J29" t="n">
-        <v>276.0532770435807</v>
+        <v>276.0532770435809</v>
       </c>
       <c r="K29" t="n">
-        <v>512.3249274228017</v>
+        <v>512.3249274228019</v>
       </c>
       <c r="L29" t="n">
-        <v>805.4408022867024</v>
+        <v>805.4408022867026</v>
       </c>
       <c r="M29" t="n">
         <v>1131.58869045549</v>
@@ -6481,7 +6481,7 @@
         <v>1775.96950697326</v>
       </c>
       <c r="P29" t="n">
-        <v>2043.069798152529</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q29" t="n">
         <v>2243.650993163596</v>
@@ -6499,16 +6499,16 @@
         <v>1849.01926465316</v>
       </c>
       <c r="V29" t="n">
-        <v>1849.01926465316</v>
+        <v>1766.133662218718</v>
       </c>
       <c r="W29" t="n">
-        <v>1849.01926465316</v>
+        <v>1766.133662218718</v>
       </c>
       <c r="X29" t="n">
-        <v>1849.01926465316</v>
+        <v>1346.991198798029</v>
       </c>
       <c r="Y29" t="n">
-        <v>1849.01926465316</v>
+        <v>1346.991198798029</v>
       </c>
     </row>
     <row r="30">
@@ -6521,31 +6521,31 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C30" t="n">
-        <v>436.1148439030331</v>
+        <v>436.114843903033</v>
       </c>
       <c r="D30" t="n">
-        <v>341.0245550495864</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E30" t="n">
-        <v>246.9041403765401</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F30" t="n">
-        <v>163.5203019927017</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G30" t="n">
-        <v>79.1492015823585</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H30" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I30" t="n">
-        <v>81.42328772043086</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J30" t="n">
-        <v>175.316627066898</v>
+        <v>175.3166270668981</v>
       </c>
       <c r="K30" t="n">
-        <v>335.7952991210682</v>
+        <v>335.7952991210683</v>
       </c>
       <c r="L30" t="n">
         <v>551.5786779960906</v>
@@ -6597,16 +6597,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>616.081764785142</v>
+        <v>693.5605581121392</v>
       </c>
       <c r="C31" t="n">
-        <v>616.081764785142</v>
+        <v>520.9988465953642</v>
       </c>
       <c r="D31" t="n">
-        <v>450.2037719866647</v>
+        <v>520.9988465953642</v>
       </c>
       <c r="E31" t="n">
-        <v>450.2037719866647</v>
+        <v>520.9988465953642</v>
       </c>
       <c r="F31" t="n">
         <v>344.2917925571204</v>
@@ -6615,31 +6615,31 @@
         <v>179.5506121696388</v>
       </c>
       <c r="H31" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I31" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="J31" t="n">
-        <v>106.1122152511379</v>
+        <v>106.1122152511378</v>
       </c>
       <c r="K31" t="n">
-        <v>202.9123158186961</v>
+        <v>477.6707703898316</v>
       </c>
       <c r="L31" t="n">
-        <v>481.9462364092381</v>
+        <v>601.5415720081295</v>
       </c>
       <c r="M31" t="n">
-        <v>1066.127311827553</v>
+        <v>897.9345369632205</v>
       </c>
       <c r="N31" t="n">
-        <v>1635.885026789087</v>
+        <v>1467.692251924755</v>
       </c>
       <c r="O31" t="n">
-        <v>2173.32015736263</v>
+        <v>2005.127382498298</v>
       </c>
       <c r="P31" t="n">
-        <v>2274.089213540314</v>
+        <v>2105.896438675981</v>
       </c>
       <c r="Q31" t="n">
         <v>2343.856484770969</v>
@@ -6648,25 +6648,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S31" t="n">
-        <v>2360.327577447737</v>
+        <v>2245.987752055747</v>
       </c>
       <c r="T31" t="n">
-        <v>2118.080353351143</v>
+        <v>2003.740527959153</v>
       </c>
       <c r="U31" t="n">
-        <v>1839.693721399886</v>
+        <v>1725.353896007897</v>
       </c>
       <c r="V31" t="n">
-        <v>1552.738213270317</v>
+        <v>1438.398387878327</v>
       </c>
       <c r="W31" t="n">
-        <v>1280.711808856609</v>
+        <v>1166.371983464619</v>
       </c>
       <c r="X31" t="n">
-        <v>1035.320054190021</v>
+        <v>920.980228798031</v>
       </c>
       <c r="Y31" t="n">
-        <v>807.9003835041292</v>
+        <v>693.5605581121392</v>
       </c>
     </row>
     <row r="32">
@@ -6676,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1849.019264653161</v>
+        <v>1744.26120212753</v>
       </c>
       <c r="C32" t="n">
-        <v>1410.876791836584</v>
+        <v>1744.26120212753</v>
       </c>
       <c r="D32" t="n">
-        <v>974.9670070110287</v>
+        <v>1308.351417301975</v>
       </c>
       <c r="E32" t="n">
-        <v>974.9670070110287</v>
+        <v>874.5766724602698</v>
       </c>
       <c r="F32" t="n">
-        <v>716.4307943255671</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="G32" t="n">
-        <v>316.9281030050443</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="H32" t="n">
-        <v>47.20655154895475</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I32" t="n">
         <v>118.4065018001357</v>
@@ -6703,10 +6703,10 @@
         <v>276.0532770435809</v>
       </c>
       <c r="K32" t="n">
-        <v>512.3249274228019</v>
+        <v>512.3249274228018</v>
       </c>
       <c r="L32" t="n">
-        <v>805.4408022867026</v>
+        <v>805.4408022867025</v>
       </c>
       <c r="M32" t="n">
         <v>1131.58869045549</v>
@@ -6721,31 +6721,31 @@
         <v>2043.069798152529</v>
       </c>
       <c r="Q32" t="n">
-        <v>2243.650993163597</v>
+        <v>2243.650993163596</v>
       </c>
       <c r="R32" t="n">
         <v>2360.327577447737</v>
       </c>
       <c r="S32" t="n">
-        <v>2319.861207662535</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T32" t="n">
-        <v>2108.089956131647</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="U32" t="n">
-        <v>1849.019264653161</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="V32" t="n">
-        <v>1849.019264653161</v>
+        <v>1957.244257596361</v>
       </c>
       <c r="W32" t="n">
-        <v>1849.019264653161</v>
+        <v>1957.244257596361</v>
       </c>
       <c r="X32" t="n">
-        <v>1849.019264653161</v>
+        <v>1957.244257596361</v>
       </c>
       <c r="Y32" t="n">
-        <v>1849.019264653161</v>
+        <v>1744.26120212753</v>
       </c>
     </row>
     <row r="33">
@@ -6755,34 +6755,34 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>542.571305066391</v>
+        <v>542.5713050663908</v>
       </c>
       <c r="C33" t="n">
-        <v>436.1148439030333</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D33" t="n">
-        <v>341.0245550495865</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E33" t="n">
-        <v>246.9041403765402</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F33" t="n">
-        <v>163.5203019927018</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G33" t="n">
-        <v>79.14920158235863</v>
+        <v>79.1492015823585</v>
       </c>
       <c r="H33" t="n">
-        <v>47.20655154895475</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I33" t="n">
-        <v>81.42328772043086</v>
+        <v>81.42328772043098</v>
       </c>
       <c r="J33" t="n">
-        <v>175.316627066898</v>
+        <v>175.3166270668981</v>
       </c>
       <c r="K33" t="n">
-        <v>335.7952991210682</v>
+        <v>335.7952991210685</v>
       </c>
       <c r="L33" t="n">
         <v>551.5786779960906</v>
@@ -6806,7 +6806,7 @@
         <v>1676.651116233592</v>
       </c>
       <c r="S33" t="n">
-        <v>1632.030085633327</v>
+        <v>1632.030085633326</v>
       </c>
       <c r="T33" t="n">
         <v>1505.938530508979</v>
@@ -6818,13 +6818,13 @@
         <v>1130.551175394859</v>
       </c>
       <c r="W33" t="n">
-        <v>945.2284211280535</v>
+        <v>945.2284211280532</v>
       </c>
       <c r="X33" t="n">
-        <v>790.3609853669334</v>
+        <v>790.3609853669332</v>
       </c>
       <c r="Y33" t="n">
-        <v>663.8752061461541</v>
+        <v>663.8752061461539</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>959.2942050525578</v>
+        <v>864.4553742723976</v>
       </c>
       <c r="C34" t="n">
-        <v>786.7324935357827</v>
+        <v>691.8936627556226</v>
       </c>
       <c r="D34" t="n">
-        <v>620.8545007373054</v>
+        <v>526.0156699571453</v>
       </c>
       <c r="E34" t="n">
-        <v>451.0964969880427</v>
+        <v>356.2576662078826</v>
       </c>
       <c r="F34" t="n">
-        <v>407.3870791208724</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="G34" t="n">
-        <v>242.6458987333908</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="H34" t="n">
-        <v>110.3018381127067</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I34" t="n">
-        <v>47.20655154895475</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="J34" t="n">
         <v>192.6919004158277</v>
       </c>
       <c r="K34" t="n">
-        <v>465.6045913582047</v>
+        <v>564.2504555545214</v>
       </c>
       <c r="L34" t="n">
-        <v>1007.685274744464</v>
+        <v>1106.33113894078</v>
       </c>
       <c r="M34" t="n">
-        <v>1138.289667082993</v>
+        <v>1236.93553127931</v>
       </c>
       <c r="N34" t="n">
-        <v>1708.047382044527</v>
+        <v>1364.434443083199</v>
       </c>
       <c r="O34" t="n">
-        <v>1825.813263392289</v>
+        <v>1657.620488527957</v>
       </c>
       <c r="P34" t="n">
-        <v>2274.089213540314</v>
+        <v>2105.896438675982</v>
       </c>
       <c r="Q34" t="n">
-        <v>2343.85648477097</v>
+        <v>2343.856484770969</v>
       </c>
       <c r="R34" t="n">
         <v>2360.327577447737</v>
       </c>
       <c r="S34" t="n">
-        <v>2215.901038951972</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T34" t="n">
-        <v>2215.901038951972</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="U34" t="n">
-        <v>1937.514407000715</v>
+        <v>2081.94094549648</v>
       </c>
       <c r="V34" t="n">
-        <v>1650.558898871145</v>
+        <v>1794.98543736691</v>
       </c>
       <c r="W34" t="n">
-        <v>1378.532494457437</v>
+        <v>1522.959032953202</v>
       </c>
       <c r="X34" t="n">
-        <v>1378.532494457437</v>
+        <v>1283.693663677277</v>
       </c>
       <c r="Y34" t="n">
-        <v>1151.112823771545</v>
+        <v>1056.273992991385</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1849.019264653161</v>
+        <v>1782.900983623584</v>
       </c>
       <c r="C35" t="n">
-        <v>1410.876791836584</v>
+        <v>1344.758510807007</v>
       </c>
       <c r="D35" t="n">
-        <v>974.9670070110287</v>
+        <v>908.8487259814518</v>
       </c>
       <c r="E35" t="n">
-        <v>541.1922621693238</v>
+        <v>475.073981139747</v>
       </c>
       <c r="F35" t="n">
-        <v>113.3248325785316</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="G35" t="n">
-        <v>113.3248325785316</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="H35" t="n">
-        <v>47.20655154895475</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I35" t="n">
-        <v>118.4065018001357</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J35" t="n">
-        <v>276.0532770435809</v>
+        <v>276.0532770435802</v>
       </c>
       <c r="K35" t="n">
-        <v>512.3249274228017</v>
+        <v>512.3249274228011</v>
       </c>
       <c r="L35" t="n">
-        <v>805.4408022867027</v>
+        <v>805.4408022867018</v>
       </c>
       <c r="M35" t="n">
-        <v>1131.58869045549</v>
+        <v>1131.588690455489</v>
       </c>
       <c r="N35" t="n">
-        <v>1463.013992431967</v>
+        <v>1463.013992431966</v>
       </c>
       <c r="O35" t="n">
-        <v>1775.96950697326</v>
+        <v>1775.969506973259</v>
       </c>
       <c r="P35" t="n">
-        <v>2043.069798152529</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q35" t="n">
         <v>2243.650993163596</v>
       </c>
       <c r="R35" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S35" t="n">
-        <v>2319.861207662535</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="T35" t="n">
-        <v>2108.089956131647</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="U35" t="n">
-        <v>1849.019264653161</v>
+        <v>2060.790516184047</v>
       </c>
       <c r="V35" t="n">
-        <v>1849.019264653161</v>
+        <v>1782.900983623584</v>
       </c>
       <c r="W35" t="n">
-        <v>1849.019264653161</v>
+        <v>1782.900983623584</v>
       </c>
       <c r="X35" t="n">
-        <v>1849.019264653161</v>
+        <v>1782.900983623584</v>
       </c>
       <c r="Y35" t="n">
-        <v>1849.019264653161</v>
+        <v>1782.900983623584</v>
       </c>
     </row>
     <row r="36">
@@ -6995,31 +6995,31 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C36" t="n">
-        <v>436.1148439030331</v>
+        <v>436.114843903033</v>
       </c>
       <c r="D36" t="n">
-        <v>341.0245550495864</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E36" t="n">
-        <v>246.9041403765401</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F36" t="n">
-        <v>163.5203019927017</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G36" t="n">
-        <v>79.1492015823585</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H36" t="n">
-        <v>47.20655154895475</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I36" t="n">
-        <v>81.42328772043086</v>
+        <v>81.42328772043101</v>
       </c>
       <c r="J36" t="n">
-        <v>175.316627066898</v>
+        <v>175.3166270668981</v>
       </c>
       <c r="K36" t="n">
-        <v>335.7952991210682</v>
+        <v>335.7952991210683</v>
       </c>
       <c r="L36" t="n">
         <v>551.5786779960906</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1092.291841223631</v>
+        <v>616.0817647851411</v>
       </c>
       <c r="C37" t="n">
-        <v>919.7301297068562</v>
+        <v>443.520053268366</v>
       </c>
       <c r="D37" t="n">
-        <v>753.852136908379</v>
+        <v>443.520053268366</v>
       </c>
       <c r="E37" t="n">
-        <v>584.0941331591162</v>
+        <v>273.7620495191033</v>
       </c>
       <c r="F37" t="n">
-        <v>407.3870791208724</v>
+        <v>97.0549954808595</v>
       </c>
       <c r="G37" t="n">
-        <v>242.6458987333908</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="H37" t="n">
-        <v>110.3018381127067</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I37" t="n">
-        <v>47.20655154895475</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="J37" t="n">
-        <v>192.6919004158277</v>
+        <v>106.1122152511378</v>
       </c>
       <c r="K37" t="n">
-        <v>564.2504555545215</v>
+        <v>477.6707703898316</v>
       </c>
       <c r="L37" t="n">
-        <v>688.1212571728195</v>
+        <v>601.5415720081295</v>
       </c>
       <c r="M37" t="n">
-        <v>1272.302332591134</v>
+        <v>1185.722647426444</v>
       </c>
       <c r="N37" t="n">
-        <v>1399.801244395024</v>
+        <v>1755.480362387978</v>
       </c>
       <c r="O37" t="n">
-        <v>1657.620488527957</v>
+        <v>2173.320157362629</v>
       </c>
       <c r="P37" t="n">
-        <v>2105.896438675982</v>
+        <v>2274.089213540313</v>
       </c>
       <c r="Q37" t="n">
-        <v>2343.85648477097</v>
+        <v>2343.856484770969</v>
       </c>
       <c r="R37" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S37" t="n">
-        <v>2215.901038951972</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="T37" t="n">
-        <v>1973.653814855378</v>
+        <v>2118.080353351143</v>
       </c>
       <c r="U37" t="n">
-        <v>1973.653814855378</v>
+        <v>1839.693721399886</v>
       </c>
       <c r="V37" t="n">
-        <v>1973.653814855378</v>
+        <v>1552.738213270316</v>
       </c>
       <c r="W37" t="n">
-        <v>1756.921885295098</v>
+        <v>1280.711808856608</v>
       </c>
       <c r="X37" t="n">
-        <v>1511.53013062851</v>
+        <v>1035.32005419002</v>
       </c>
       <c r="Y37" t="n">
-        <v>1284.110459942618</v>
+        <v>807.9003835041283</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1355.033554032792</v>
+        <v>1782.900983623584</v>
       </c>
       <c r="C38" t="n">
-        <v>916.8910812162151</v>
+        <v>1344.758510807007</v>
       </c>
       <c r="D38" t="n">
-        <v>480.9812963906596</v>
+        <v>908.8487259814518</v>
       </c>
       <c r="E38" t="n">
-        <v>47.20655154895474</v>
+        <v>475.073981139747</v>
       </c>
       <c r="F38" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="G38" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="H38" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I38" t="n">
         <v>118.4065018001353</v>
       </c>
       <c r="J38" t="n">
-        <v>276.0532770435805</v>
+        <v>276.0532770435806</v>
       </c>
       <c r="K38" t="n">
-        <v>512.3249274228016</v>
+        <v>512.3249274228015</v>
       </c>
       <c r="L38" t="n">
-        <v>805.4408022867023</v>
+        <v>805.440802286702</v>
       </c>
       <c r="M38" t="n">
-        <v>1131.58869045549</v>
+        <v>1131.588690455489</v>
       </c>
       <c r="N38" t="n">
-        <v>1463.013992431967</v>
+        <v>1463.013992431966</v>
       </c>
       <c r="O38" t="n">
-        <v>1775.96950697326</v>
+        <v>1775.969506973259</v>
       </c>
       <c r="P38" t="n">
-        <v>2043.069798152529</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q38" t="n">
         <v>2243.650993163596</v>
       </c>
       <c r="R38" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S38" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="T38" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="U38" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="V38" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="W38" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="X38" t="n">
-        <v>1941.185114027048</v>
+        <v>2209.200554108492</v>
       </c>
       <c r="Y38" t="n">
-        <v>1532.898990326701</v>
+        <v>2209.200554108492</v>
       </c>
     </row>
     <row r="39">
@@ -7232,43 +7232,43 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C39" t="n">
-        <v>436.1148439030331</v>
+        <v>436.114843903033</v>
       </c>
       <c r="D39" t="n">
-        <v>341.0245550495864</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E39" t="n">
-        <v>246.9041403765401</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F39" t="n">
-        <v>163.5203019927017</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G39" t="n">
-        <v>79.1492015823585</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H39" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I39" t="n">
-        <v>81.42328772043086</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J39" t="n">
         <v>175.316627066898</v>
       </c>
       <c r="K39" t="n">
-        <v>335.7952991210682</v>
+        <v>335.7952991210681</v>
       </c>
       <c r="L39" t="n">
-        <v>551.5786779960906</v>
+        <v>551.5786779960904</v>
       </c>
       <c r="M39" t="n">
-        <v>803.387703298788</v>
+        <v>803.3877032987878</v>
       </c>
       <c r="N39" t="n">
         <v>1061.861364220108</v>
       </c>
       <c r="O39" t="n">
-        <v>1298.314267034639</v>
+        <v>1298.314267034638</v>
       </c>
       <c r="P39" t="n">
         <v>1488.088567599445</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>663.4738450083642</v>
+        <v>1092.291841223631</v>
       </c>
       <c r="C40" t="n">
-        <v>663.4738450083642</v>
+        <v>919.7301297068562</v>
       </c>
       <c r="D40" t="n">
-        <v>526.0156699571453</v>
+        <v>753.852136908379</v>
       </c>
       <c r="E40" t="n">
-        <v>356.2576662078826</v>
+        <v>584.0941331591162</v>
       </c>
       <c r="F40" t="n">
-        <v>179.5506121696388</v>
+        <v>407.3870791208724</v>
       </c>
       <c r="G40" t="n">
-        <v>179.5506121696388</v>
+        <v>242.6458987333908</v>
       </c>
       <c r="H40" t="n">
-        <v>47.20655154895474</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="I40" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="J40" t="n">
         <v>192.6919004158277</v>
       </c>
       <c r="K40" t="n">
-        <v>564.2504555545215</v>
+        <v>564.2504555545214</v>
       </c>
       <c r="L40" t="n">
-        <v>688.1212571728195</v>
+        <v>1106.33113894078</v>
       </c>
       <c r="M40" t="n">
-        <v>1272.302332591134</v>
+        <v>1236.93553127931</v>
       </c>
       <c r="N40" t="n">
-        <v>1399.801244395024</v>
+        <v>1364.434443083199</v>
       </c>
       <c r="O40" t="n">
-        <v>1657.620488527957</v>
+        <v>1657.620488527956</v>
       </c>
       <c r="P40" t="n">
-        <v>2105.896438675982</v>
+        <v>2105.896438675981</v>
       </c>
       <c r="Q40" t="n">
         <v>2343.856484770969</v>
       </c>
       <c r="R40" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S40" t="n">
-        <v>2215.901038951972</v>
+        <v>2330.731351249077</v>
       </c>
       <c r="T40" t="n">
-        <v>1973.653814855378</v>
+        <v>2088.484127152484</v>
       </c>
       <c r="U40" t="n">
-        <v>1695.267182904121</v>
+        <v>2088.484127152484</v>
       </c>
       <c r="V40" t="n">
-        <v>1408.311674774552</v>
+        <v>1801.528619022914</v>
       </c>
       <c r="W40" t="n">
-        <v>1136.285270360843</v>
+        <v>1529.502214609206</v>
       </c>
       <c r="X40" t="n">
-        <v>890.8935156942559</v>
+        <v>1284.110459942618</v>
       </c>
       <c r="Y40" t="n">
-        <v>663.4738450083642</v>
+        <v>1284.110459942618</v>
       </c>
     </row>
     <row r="41">
@@ -7399,64 +7399,64 @@
         <v>475.073981139747</v>
       </c>
       <c r="F41" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="G41" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="H41" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I41" t="n">
-        <v>118.4065018001354</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J41" t="n">
-        <v>276.0532770435807</v>
+        <v>276.0532770435805</v>
       </c>
       <c r="K41" t="n">
-        <v>512.3249274228017</v>
+        <v>512.3249274228015</v>
       </c>
       <c r="L41" t="n">
-        <v>805.4408022867024</v>
+        <v>805.440802286702</v>
       </c>
       <c r="M41" t="n">
-        <v>1131.58869045549</v>
+        <v>1131.588690455489</v>
       </c>
       <c r="N41" t="n">
-        <v>1463.013992431967</v>
+        <v>1463.013992431966</v>
       </c>
       <c r="O41" t="n">
-        <v>1775.96950697326</v>
+        <v>1775.969506973259</v>
       </c>
       <c r="P41" t="n">
-        <v>2043.069798152529</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q41" t="n">
         <v>2243.650993163596</v>
       </c>
       <c r="R41" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S41" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="T41" t="n">
-        <v>2148.556325916849</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="U41" t="n">
-        <v>2148.556325916849</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="V41" t="n">
-        <v>2148.556325916849</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="W41" t="n">
-        <v>2148.556325916849</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="X41" t="n">
-        <v>2148.556325916849</v>
+        <v>2209.200554108492</v>
       </c>
       <c r="Y41" t="n">
-        <v>2148.556325916849</v>
+        <v>2209.200554108492</v>
       </c>
     </row>
     <row r="42">
@@ -7469,37 +7469,37 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C42" t="n">
-        <v>436.1148439030331</v>
+        <v>436.114843903033</v>
       </c>
       <c r="D42" t="n">
-        <v>341.0245550495864</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E42" t="n">
-        <v>246.9041403765401</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F42" t="n">
-        <v>163.5203019927017</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G42" t="n">
-        <v>79.1492015823585</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H42" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I42" t="n">
-        <v>81.42328772043086</v>
+        <v>81.42328772043082</v>
       </c>
       <c r="J42" t="n">
-        <v>175.316627066898</v>
+        <v>175.3166270668988</v>
       </c>
       <c r="K42" t="n">
-        <v>335.7952991210682</v>
+        <v>335.7952991210689</v>
       </c>
       <c r="L42" t="n">
-        <v>551.5786779960906</v>
+        <v>551.5786779960912</v>
       </c>
       <c r="M42" t="n">
-        <v>803.387703298788</v>
+        <v>803.3877032987884</v>
       </c>
       <c r="N42" t="n">
         <v>1061.861364220108</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>890.8935156942559</v>
+        <v>616.0817647851411</v>
       </c>
       <c r="C43" t="n">
-        <v>749.9721259575934</v>
+        <v>616.0817647851411</v>
       </c>
       <c r="D43" t="n">
-        <v>584.0941331591162</v>
+        <v>616.0817647851411</v>
       </c>
       <c r="E43" t="n">
-        <v>584.0941331591162</v>
+        <v>451.7500725384321</v>
       </c>
       <c r="F43" t="n">
-        <v>407.3870791208724</v>
+        <v>275.0430185001883</v>
       </c>
       <c r="G43" t="n">
-        <v>242.6458987333908</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="H43" t="n">
         <v>110.3018381127067</v>
       </c>
       <c r="I43" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="J43" t="n">
-        <v>106.1122152511379</v>
+        <v>106.1122152511378</v>
       </c>
       <c r="K43" t="n">
-        <v>202.9123158186961</v>
+        <v>202.912315818696</v>
       </c>
       <c r="L43" t="n">
-        <v>481.9462364092381</v>
+        <v>481.9462364092376</v>
       </c>
       <c r="M43" t="n">
-        <v>1066.127311827553</v>
+        <v>1066.127311827552</v>
       </c>
       <c r="N43" t="n">
-        <v>1635.885026789087</v>
+        <v>1635.885026789086</v>
       </c>
       <c r="O43" t="n">
         <v>2173.32015736263</v>
       </c>
       <c r="P43" t="n">
-        <v>2274.089213540314</v>
+        <v>2274.089213540313</v>
       </c>
       <c r="Q43" t="n">
         <v>2343.856484770969</v>
       </c>
       <c r="R43" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S43" t="n">
-        <v>2215.901038951972</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="T43" t="n">
-        <v>1973.653814855378</v>
+        <v>2118.080353351143</v>
       </c>
       <c r="U43" t="n">
-        <v>1695.267182904121</v>
+        <v>1839.693721399886</v>
       </c>
       <c r="V43" t="n">
-        <v>1408.311674774552</v>
+        <v>1552.738213270316</v>
       </c>
       <c r="W43" t="n">
-        <v>1136.285270360843</v>
+        <v>1280.711808856608</v>
       </c>
       <c r="X43" t="n">
-        <v>890.8935156942559</v>
+        <v>1035.32005419002</v>
       </c>
       <c r="Y43" t="n">
-        <v>890.8935156942559</v>
+        <v>807.9003835041283</v>
       </c>
     </row>
     <row r="44">
@@ -7624,37 +7624,37 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1526.86868437219</v>
+        <v>1355.033554032792</v>
       </c>
       <c r="C44" t="n">
-        <v>1526.86868437219</v>
+        <v>916.8910812162151</v>
       </c>
       <c r="D44" t="n">
-        <v>1526.86868437219</v>
+        <v>480.9812963906596</v>
       </c>
       <c r="E44" t="n">
-        <v>1144.298223916359</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="F44" t="n">
-        <v>716.4307943255671</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="G44" t="n">
-        <v>316.9281030050443</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="H44" t="n">
-        <v>47.20655154895475</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I44" t="n">
-        <v>118.4065018001357</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J44" t="n">
         <v>276.0532770435809</v>
       </c>
       <c r="K44" t="n">
-        <v>512.3249274228017</v>
+        <v>512.3249274228018</v>
       </c>
       <c r="L44" t="n">
-        <v>805.4408022867027</v>
+        <v>805.4408022867023</v>
       </c>
       <c r="M44" t="n">
         <v>1131.58869045549</v>
@@ -7663,37 +7663,37 @@
         <v>1463.013992431967</v>
       </c>
       <c r="O44" t="n">
-        <v>1775.96950697326</v>
+        <v>1775.969506973259</v>
       </c>
       <c r="P44" t="n">
-        <v>2043.069798152529</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q44" t="n">
         <v>2243.650993163596</v>
       </c>
       <c r="R44" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S44" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="T44" t="n">
-        <v>2148.55632591685</v>
+        <v>2186.188579106666</v>
       </c>
       <c r="U44" t="n">
-        <v>1889.485634438364</v>
+        <v>2186.188579106666</v>
       </c>
       <c r="V44" t="n">
-        <v>1526.86868437219</v>
+        <v>2186.188579106666</v>
       </c>
       <c r="W44" t="n">
-        <v>1526.86868437219</v>
+        <v>1781.3331245177</v>
       </c>
       <c r="X44" t="n">
-        <v>1526.86868437219</v>
+        <v>1781.3331245177</v>
       </c>
       <c r="Y44" t="n">
-        <v>1526.86868437219</v>
+        <v>1781.3331245177</v>
       </c>
     </row>
     <row r="45">
@@ -7706,43 +7706,43 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C45" t="n">
-        <v>436.1148439030331</v>
+        <v>436.114843903033</v>
       </c>
       <c r="D45" t="n">
-        <v>341.0245550495864</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E45" t="n">
-        <v>246.9041403765401</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F45" t="n">
-        <v>163.5203019927017</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G45" t="n">
-        <v>79.1492015823585</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H45" t="n">
-        <v>47.20655154895475</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I45" t="n">
-        <v>81.42328772043086</v>
+        <v>81.42328772043082</v>
       </c>
       <c r="J45" t="n">
-        <v>175.316627066898</v>
+        <v>175.3166270668979</v>
       </c>
       <c r="K45" t="n">
-        <v>335.7952991210682</v>
+        <v>335.7952991210681</v>
       </c>
       <c r="L45" t="n">
-        <v>551.5786779960906</v>
+        <v>551.5786779960904</v>
       </c>
       <c r="M45" t="n">
-        <v>803.387703298788</v>
+        <v>803.3877032987876</v>
       </c>
       <c r="N45" t="n">
         <v>1061.861364220108</v>
       </c>
       <c r="O45" t="n">
-        <v>1298.314267034639</v>
+        <v>1298.314267034638</v>
       </c>
       <c r="P45" t="n">
         <v>1488.088567599445</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>995.4336129072215</v>
+        <v>616.0817647851411</v>
       </c>
       <c r="C46" t="n">
-        <v>822.8719013904464</v>
+        <v>616.0817647851411</v>
       </c>
       <c r="D46" t="n">
-        <v>753.852136908379</v>
+        <v>450.2037719866638</v>
       </c>
       <c r="E46" t="n">
-        <v>584.0941331591162</v>
+        <v>280.4457682374011</v>
       </c>
       <c r="F46" t="n">
-        <v>407.3870791208724</v>
+        <v>275.0430185001883</v>
       </c>
       <c r="G46" t="n">
-        <v>242.6458987333908</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="H46" t="n">
         <v>110.3018381127067</v>
       </c>
       <c r="I46" t="n">
-        <v>47.20655154895475</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="J46" t="n">
-        <v>106.1122152511379</v>
+        <v>192.6919004158277</v>
       </c>
       <c r="K46" t="n">
-        <v>202.9123158186961</v>
+        <v>358.0754347909397</v>
       </c>
       <c r="L46" t="n">
-        <v>744.992999204955</v>
+        <v>481.9462364092376</v>
       </c>
       <c r="M46" t="n">
-        <v>1066.127311827553</v>
+        <v>1066.127311827552</v>
       </c>
       <c r="N46" t="n">
-        <v>1635.885026789087</v>
+        <v>1635.885026789086</v>
       </c>
       <c r="O46" t="n">
-        <v>2173.320157362631</v>
+        <v>2173.32015736263</v>
       </c>
       <c r="P46" t="n">
-        <v>2274.089213540314</v>
+        <v>2274.089213540313</v>
       </c>
       <c r="Q46" t="n">
-        <v>2343.85648477097</v>
+        <v>2343.856484770969</v>
       </c>
       <c r="R46" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S46" t="n">
-        <v>2215.901038951972</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="T46" t="n">
-        <v>1973.653814855378</v>
+        <v>2118.080353351143</v>
       </c>
       <c r="U46" t="n">
-        <v>1973.653814855378</v>
+        <v>1839.693721399886</v>
       </c>
       <c r="V46" t="n">
-        <v>1686.698306725809</v>
+        <v>1552.738213270316</v>
       </c>
       <c r="W46" t="n">
-        <v>1414.6719023121</v>
+        <v>1280.711808856608</v>
       </c>
       <c r="X46" t="n">
-        <v>1414.6719023121</v>
+        <v>1035.32005419002</v>
       </c>
       <c r="Y46" t="n">
-        <v>1187.252231626209</v>
+        <v>807.9003835041283</v>
       </c>
     </row>
   </sheetData>
@@ -8549,13 +8549,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>32.63681545384287</v>
       </c>
       <c r="Q9" t="n">
-        <v>32.6368154538427</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>106.4970253946632</v>
+        <v>106.4970253946636</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8613,13 +8613,13 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K10" t="n">
-        <v>99.33766198190332</v>
+        <v>99.33766198190369</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>11.38814337090577</v>
       </c>
       <c r="M10" t="n">
-        <v>11.3881433709054</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
         <v>0</v>
@@ -8631,7 +8631,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>104.8520877340652</v>
+        <v>104.8520877340656</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8853,19 +8853,19 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
         <v>458.1582657371569</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>70.05088382580971</v>
       </c>
       <c r="O13" t="n">
-        <v>141.4680432173448</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
         <v>169.8916917821538</v>
@@ -9084,28 +9084,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
-        <v>177.1920849464598</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P16" t="n">
-        <v>351.0170646165068</v>
+        <v>192.4544649334021</v>
       </c>
       <c r="Q16" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9321,28 +9321,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M19" t="n">
-        <v>177.1920849464593</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P19" t="n">
-        <v>351.0170646165068</v>
+        <v>192.4544649334025</v>
       </c>
       <c r="Q19" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9558,28 +9558,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>277.5337924960966</v>
+        <v>156.7304232042867</v>
       </c>
       <c r="L22" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>458.1582657371571</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O22" t="n">
-        <v>177.1920849464598</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P22" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9795,28 +9795,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L25" t="n">
-        <v>156.7304232042871</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
         <v>458.158265737157</v>
       </c>
       <c r="N25" t="n">
-        <v>446.7260637956006</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>68.57677528255635</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -10032,13 +10032,13 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>263.8716243249369</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M28" t="n">
         <v>0</v>
@@ -10047,13 +10047,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O28" t="n">
-        <v>423.9083325512944</v>
+        <v>7.999813646955772</v>
       </c>
       <c r="P28" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10272,13 +10272,13 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L31" t="n">
-        <v>156.7304232042869</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>458.158265737157</v>
+        <v>167.4632046631936</v>
       </c>
       <c r="N31" t="n">
         <v>446.7260637956006</v>
@@ -10290,7 +10290,7 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10509,7 +10509,7 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K34" t="n">
-        <v>177.8915054291098</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L34" t="n">
         <v>422.4342240080415</v>
@@ -10518,16 +10518,16 @@
         <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>446.7260637956006</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>177.1920849464602</v>
       </c>
       <c r="P34" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10743,7 +10743,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
         <v>277.5337924960966</v>
@@ -10752,19 +10752,19 @@
         <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>458.1582657371572</v>
+        <v>458.1582657371569</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O37" t="n">
-        <v>141.4680432173448</v>
+        <v>303.1049632594843</v>
       </c>
       <c r="P37" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10986,16 +10986,16 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M40" t="n">
-        <v>458.158265737157</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
         <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>141.4680432173443</v>
+        <v>177.1920849464593</v>
       </c>
       <c r="P40" t="n">
         <v>351.0170646165068</v>
@@ -11223,10 +11223,10 @@
         <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>156.7304232042869</v>
+        <v>156.7304232042866</v>
       </c>
       <c r="M43" t="n">
-        <v>458.158265737157</v>
+        <v>458.1582657371569</v>
       </c>
       <c r="N43" t="n">
         <v>446.7260637956006</v>
@@ -11454,16 +11454,16 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>69.2761957652059</v>
       </c>
       <c r="L46" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>192.4544649334026</v>
+        <v>458.1582657371569</v>
       </c>
       <c r="N46" t="n">
         <v>446.7260637956006</v>
@@ -23266,16 +23266,16 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23314,13 +23314,13 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>144.8560494844711</v>
       </c>
       <c r="V11" t="n">
-        <v>293.5336823462309</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>414.9510387864824</v>
@@ -23415,16 +23415,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>64.29092568369018</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23433,10 +23433,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>119.1276454350793</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,7 +23466,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23494,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>433.7610480884109</v>
@@ -23509,10 +23509,10 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23548,7 +23548,7 @@
         <v>40.06170608735099</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>157.6888901987943</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23560,7 +23560,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>22.12002573942863</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23652,19 +23652,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>3.364664575149817</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>76.70400539372771</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23673,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23718,10 +23718,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23731,13 +23731,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>215.5652821086638</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E17" t="n">
         <v>429.4369973932878</v>
@@ -23746,10 +23746,10 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G17" t="n">
-        <v>395.5076644073176</v>
+        <v>266.8458665204467</v>
       </c>
       <c r="H17" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23788,16 +23788,16 @@
         <v>209.6535390155789</v>
       </c>
       <c r="U17" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23892,22 +23892,22 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E19" t="n">
-        <v>73.9283347038905</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>81.67066052189065</v>
       </c>
       <c r="I19" t="n">
         <v>62.46433369811443</v>
@@ -23968,22 +23968,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>431.5506869772999</v>
+        <v>36.30276776572322</v>
       </c>
       <c r="E20" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F20" t="n">
-        <v>209.3577638164624</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G20" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>267.0243359415286</v>
@@ -24019,10 +24019,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>256.4799845637012</v>
@@ -24037,7 +24037,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="21">
@@ -24126,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>65.41636997057593</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,7 +24177,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>27.01017528290028</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24192,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24256,10 +24256,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>60.03778590972617</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U23" t="n">
         <v>256.4799845637012</v>
@@ -24271,7 +24271,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X23" t="n">
-        <v>414.9510387864824</v>
+        <v>305.3969917679815</v>
       </c>
       <c r="Y23" t="n">
         <v>404.2032624633431</v>
@@ -24366,10 +24366,10 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>114.8692533779068</v>
       </c>
       <c r="D25" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -24381,10 +24381,10 @@
         <v>163.0937685836068</v>
       </c>
       <c r="H25" t="n">
-        <v>81.67066052189064</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I25" t="n">
-        <v>62.46433369811443</v>
+        <v>62.46433369811444</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24445,22 +24445,22 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G26" t="n">
-        <v>373.5307413475246</v>
+        <v>31.95669502215964</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24493,25 +24493,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>40.06170608735098</v>
+        <v>40.061706087351</v>
       </c>
       <c r="T26" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>256.4799845637012</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="27">
@@ -24600,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>139.1683390918421</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>114.8692533779055</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24685,19 +24685,19 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H29" t="n">
-        <v>173.4861468346813</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24739,13 +24739,13 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>358.9907805655117</v>
+        <v>276.9340341554139</v>
       </c>
       <c r="W29" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X29" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>404.2032624633431</v>
@@ -24837,19 +24837,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C31" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E31" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F31" t="n">
-        <v>70.08712386261247</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24858,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>62.46433369811443</v>
+        <v>62.46433369811444</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,7 +24888,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>142.9822731108078</v>
+        <v>29.78584597273822</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24919,22 +24919,22 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>167.6379047362774</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -24970,13 +24970,13 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V32" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>400.806900043077</v>
@@ -24985,7 +24985,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y32" t="n">
-        <v>404.2032624633431</v>
+        <v>193.3500375492011</v>
       </c>
     </row>
     <row r="33">
@@ -25086,16 +25086,16 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>131.6676598093627</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,7 +25125,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T34" t="n">
         <v>239.8247518556274</v>
@@ -25140,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>242.9378371199217</v>
+        <v>6.065121536755726</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25171,7 +25171,7 @@
         <v>395.5076644073176</v>
       </c>
       <c r="H35" t="n">
-        <v>201.5672377222476</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25207,13 +25207,13 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>358.9907805655117</v>
+        <v>83.88014333065308</v>
       </c>
       <c r="W35" t="n">
         <v>400.806900043077</v>
@@ -25317,7 +25317,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -25326,13 +25326,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>113.743809091021</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>62.46433369811444</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,19 +25362,19 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>275.6027656317444</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>54.7415301048936</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25390,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>245.9497928490884</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -25402,7 +25402,7 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>395.5076644073176</v>
@@ -25441,7 +25441,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>40.06170608735098</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>209.6535390155789</v>
@@ -25456,10 +25456,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>305.3969917679815</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="39">
@@ -25548,13 +25548,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>28.13561956978586</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -25563,13 +25563,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,13 +25599,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>113.6820091741356</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="41">
@@ -25627,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>60.03778590972593</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -25678,10 +25678,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>40.06170608735098</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U41" t="n">
         <v>256.4799845637012</v>
@@ -25693,7 +25693,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
-        <v>414.9510387864824</v>
+        <v>305.3969917679815</v>
       </c>
       <c r="Y41" t="n">
         <v>404.2032624633431</v>
@@ -25785,16 +25785,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>31.32391856231146</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E43" t="n">
-        <v>168.0604237117701</v>
+        <v>5.372048387528167</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -25803,7 +25803,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -25836,7 +25836,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25864,25 +25864,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>50.69224154201515</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25915,19 +25915,19 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>40.06170608735098</v>
+        <v>40.06170608735101</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>37.25593065791963</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>414.9510387864824</v>
@@ -26025,22 +26025,22 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
-        <v>95.88964603324577</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>169.5912612580207</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -26073,13 +26073,13 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>275.6027656317444</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26088,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>383019.0003245157</v>
+        <v>383019.0003245156</v>
       </c>
     </row>
     <row r="6">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>383019.0003245157</v>
+        <v>383019.0003245156</v>
       </c>
     </row>
     <row r="10">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>383019.0003245158</v>
+        <v>383019.0003245157</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>383019.0003245157</v>
+        <v>383019.0003245156</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>383019.0003245157</v>
+        <v>383019.0003245156</v>
       </c>
     </row>
   </sheetData>
@@ -26313,10 +26313,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>300946.1639116302</v>
+        <v>300946.1639116303</v>
       </c>
       <c r="C2" t="n">
-        <v>300946.1639116302</v>
+        <v>300946.1639116303</v>
       </c>
       <c r="D2" t="n">
         <v>308284.7089369848</v>
@@ -26325,37 +26325,37 @@
         <v>180892.20699594</v>
       </c>
       <c r="F2" t="n">
+        <v>180892.2069959398</v>
+      </c>
+      <c r="G2" t="n">
+        <v>180892.2069959399</v>
+      </c>
+      <c r="H2" t="n">
         <v>180892.20699594</v>
       </c>
-      <c r="G2" t="n">
-        <v>180892.20699594</v>
-      </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
         <v>180892.2069959399</v>
       </c>
-      <c r="I2" t="n">
-        <v>180892.20699594</v>
-      </c>
       <c r="J2" t="n">
-        <v>180892.20699594</v>
+        <v>180892.2069959399</v>
       </c>
       <c r="K2" t="n">
         <v>180892.2069959399</v>
       </c>
       <c r="L2" t="n">
-        <v>180892.20699594</v>
+        <v>180892.2069959399</v>
       </c>
       <c r="M2" t="n">
-        <v>180892.20699594</v>
+        <v>180892.2069959399</v>
       </c>
       <c r="N2" t="n">
-        <v>180892.20699594</v>
+        <v>180892.2069959398</v>
       </c>
       <c r="O2" t="n">
-        <v>180892.20699594</v>
+        <v>180892.2069959399</v>
       </c>
       <c r="P2" t="n">
-        <v>180892.20699594</v>
+        <v>180892.2069959399</v>
       </c>
     </row>
     <row r="3">
@@ -26371,10 +26371,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>117708.4675730577</v>
+        <v>117708.4675730582</v>
       </c>
       <c r="E3" t="n">
-        <v>439858.2450180444</v>
+        <v>439858.2450180439</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26395,10 +26395,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>30139.06600310196</v>
+        <v>30139.06600310208</v>
       </c>
       <c r="M3" t="n">
-        <v>117374.5815597481</v>
+        <v>117374.5815597479</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>298730.7163118328</v>
+        <v>298730.7163118329</v>
       </c>
       <c r="C4" t="n">
-        <v>298730.7163118328</v>
+        <v>298730.7163118329</v>
       </c>
       <c r="D4" t="n">
-        <v>271453.7462929737</v>
+        <v>271453.7462929735</v>
       </c>
       <c r="E4" t="n">
         <v>13837.4771430886</v>
@@ -26450,16 +26450,16 @@
         <v>13837.4771430886</v>
       </c>
       <c r="M4" t="n">
-        <v>13837.47714308861</v>
+        <v>13837.47714308859</v>
       </c>
       <c r="N4" t="n">
         <v>13837.4771430886</v>
       </c>
       <c r="O4" t="n">
-        <v>13837.4771430886</v>
+        <v>13837.47714308859</v>
       </c>
       <c r="P4" t="n">
-        <v>13837.4771430886</v>
+        <v>13837.47714308859</v>
       </c>
     </row>
     <row r="5">
@@ -26475,43 +26475,43 @@
         <v>33627.6</v>
       </c>
       <c r="D5" t="n">
-        <v>42922.56227239235</v>
+        <v>42922.56227239239</v>
       </c>
       <c r="E5" t="n">
+        <v>46051.08120963781</v>
+      </c>
+      <c r="F5" t="n">
+        <v>46051.08120963781</v>
+      </c>
+      <c r="G5" t="n">
         <v>46051.08120963782</v>
-      </c>
-      <c r="F5" t="n">
-        <v>46051.08120963782</v>
-      </c>
-      <c r="G5" t="n">
-        <v>46051.08120963781</v>
       </c>
       <c r="H5" t="n">
         <v>46051.08120963782</v>
       </c>
       <c r="I5" t="n">
+        <v>46051.08120963781</v>
+      </c>
+      <c r="J5" t="n">
+        <v>46051.08120963781</v>
+      </c>
+      <c r="K5" t="n">
+        <v>46051.08120963781</v>
+      </c>
+      <c r="L5" t="n">
         <v>46051.08120963782</v>
       </c>
-      <c r="J5" t="n">
-        <v>46051.08120963783</v>
-      </c>
-      <c r="K5" t="n">
-        <v>46051.08120963782</v>
-      </c>
-      <c r="L5" t="n">
-        <v>46051.08120963783</v>
-      </c>
       <c r="M5" t="n">
-        <v>46051.08120963783</v>
+        <v>46051.08120963781</v>
       </c>
       <c r="N5" t="n">
-        <v>46051.08120963782</v>
+        <v>46051.08120963781</v>
       </c>
       <c r="O5" t="n">
-        <v>46051.08120963782</v>
+        <v>46051.0812096378</v>
       </c>
       <c r="P5" t="n">
-        <v>46051.08120963783</v>
+        <v>46051.0812096378</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-31412.15240020264</v>
+        <v>-31444.05911770415</v>
       </c>
       <c r="C6" t="n">
-        <v>-31412.15240020264</v>
+        <v>-31444.05911770409</v>
       </c>
       <c r="D6" t="n">
-        <v>-123800.0672014389</v>
+        <v>-123800.0672014393</v>
       </c>
       <c r="E6" t="n">
-        <v>-318854.5963748308</v>
+        <v>-319408.4768180523</v>
       </c>
       <c r="F6" t="n">
-        <v>121003.6486432135</v>
+        <v>120449.7681999915</v>
       </c>
       <c r="G6" t="n">
-        <v>121003.6486432136</v>
+        <v>120449.7681999916</v>
       </c>
       <c r="H6" t="n">
-        <v>121003.6486432135</v>
+        <v>120449.7681999916</v>
       </c>
       <c r="I6" t="n">
-        <v>121003.6486432135</v>
+        <v>120449.7681999916</v>
       </c>
       <c r="J6" t="n">
-        <v>121003.6486432135</v>
+        <v>120449.7681999916</v>
       </c>
       <c r="K6" t="n">
-        <v>121003.6486432135</v>
+        <v>120449.7681999916</v>
       </c>
       <c r="L6" t="n">
-        <v>90864.58264011162</v>
+        <v>90310.70219688947</v>
       </c>
       <c r="M6" t="n">
-        <v>3629.067083465496</v>
+        <v>3075.186640243699</v>
       </c>
       <c r="N6" t="n">
-        <v>121003.6486432135</v>
+        <v>120449.7681999915</v>
       </c>
       <c r="O6" t="n">
-        <v>121003.6486432135</v>
+        <v>120449.7681999915</v>
       </c>
       <c r="P6" t="n">
-        <v>121003.6486432136</v>
+        <v>120449.7681999916</v>
       </c>
     </row>
   </sheetData>
@@ -26743,13 +26743,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>94.2504821748046</v>
+        <v>94.25048217480497</v>
       </c>
       <c r="E3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.7019280932211</v>
       </c>
       <c r="F3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.7019280932211</v>
       </c>
       <c r="G3" t="n">
         <v>466.7019280932212</v>
@@ -26758,28 +26758,28 @@
         <v>466.7019280932212</v>
       </c>
       <c r="I3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.7019280932211</v>
       </c>
       <c r="J3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.7019280932211</v>
       </c>
       <c r="K3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.7019280932211</v>
       </c>
       <c r="L3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.7019280932211</v>
       </c>
       <c r="M3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.7019280932211</v>
       </c>
       <c r="N3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.7019280932211</v>
       </c>
       <c r="O3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.701928093221</v>
       </c>
       <c r="P3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.701928093221</v>
       </c>
     </row>
     <row r="4">
@@ -26795,43 +26795,43 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>119.0839105424607</v>
+        <v>119.0839105424612</v>
       </c>
       <c r="E4" t="n">
+        <v>590.0818943619341</v>
+      </c>
+      <c r="F4" t="n">
+        <v>590.0818943619341</v>
+      </c>
+      <c r="G4" t="n">
         <v>590.0818943619342</v>
-      </c>
-      <c r="F4" t="n">
-        <v>590.0818943619342</v>
-      </c>
-      <c r="G4" t="n">
-        <v>590.0818943619341</v>
       </c>
       <c r="H4" t="n">
         <v>590.0818943619342</v>
       </c>
       <c r="I4" t="n">
+        <v>590.081894361934</v>
+      </c>
+      <c r="J4" t="n">
+        <v>590.0818943619341</v>
+      </c>
+      <c r="K4" t="n">
+        <v>590.0818943619341</v>
+      </c>
+      <c r="L4" t="n">
         <v>590.0818943619342</v>
       </c>
-      <c r="J4" t="n">
-        <v>590.0818943619344</v>
-      </c>
-      <c r="K4" t="n">
-        <v>590.0818943619342</v>
-      </c>
-      <c r="L4" t="n">
-        <v>590.0818943619344</v>
-      </c>
       <c r="M4" t="n">
-        <v>590.0818943619344</v>
+        <v>590.081894361934</v>
       </c>
       <c r="N4" t="n">
-        <v>590.0818943619342</v>
+        <v>590.081894361934</v>
       </c>
       <c r="O4" t="n">
-        <v>590.0818943619342</v>
+        <v>590.081894361934</v>
       </c>
       <c r="P4" t="n">
-        <v>590.0818943619344</v>
+        <v>590.081894361934</v>
       </c>
     </row>
   </sheetData>
@@ -26965,10 +26965,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>94.2504821748046</v>
+        <v>94.25048217480497</v>
       </c>
       <c r="E3" t="n">
-        <v>372.4514459184165</v>
+        <v>372.4514459184161</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27017,10 +27017,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>119.0839105424607</v>
+        <v>119.0839105424612</v>
       </c>
       <c r="E4" t="n">
-        <v>470.9979838194735</v>
+        <v>470.9979838194729</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27041,10 +27041,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>119.0839105424609</v>
+        <v>119.0839105424613</v>
       </c>
       <c r="M4" t="n">
-        <v>470.9979838194735</v>
+        <v>470.9979838194727</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27263,10 +27263,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>119.0839105424607</v>
+        <v>119.0839105424612</v>
       </c>
       <c r="M4" t="n">
-        <v>470.9979838194735</v>
+        <v>470.9979838194729</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27855,13 +27855,13 @@
         <v>400</v>
       </c>
       <c r="C8" t="n">
-        <v>400</v>
+        <v>314.6771375459497</v>
       </c>
       <c r="D8" t="n">
         <v>400</v>
       </c>
       <c r="E8" t="n">
-        <v>310.353086850827</v>
+        <v>400</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -27870,7 +27870,7 @@
         <v>397.0049566522158</v>
       </c>
       <c r="H8" t="n">
-        <v>163.2745696021312</v>
+        <v>163.2745696021307</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27903,10 +27903,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>74.18125311796776</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>123.1331833029167</v>
+        <v>216.2079358176206</v>
       </c>
       <c r="U8" t="n">
         <v>256.599767943293</v>
@@ -27915,7 +27915,7 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>400</v>
+        <v>376.7824499081398</v>
       </c>
       <c r="X8" t="n">
         <v>400</v>
@@ -27937,16 +27937,16 @@
         <v>105.3918965517241</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>94.13938596491228</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>10.81150124462438</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>84.32851138425291</v>
       </c>
       <c r="H9" t="n">
         <v>39.36037526809191</v>
@@ -27982,7 +27982,7 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>59.05530966656964</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
         <v>128.0597233353587</v>
@@ -27991,13 +27991,13 @@
         <v>174.5598441976481</v>
       </c>
       <c r="V9" t="n">
-        <v>89.18261060091999</v>
+        <v>197.1263427586206</v>
       </c>
       <c r="W9" t="n">
-        <v>183.4695267241379</v>
+        <v>64.38561618167671</v>
       </c>
       <c r="X9" t="n">
-        <v>153.3187614035088</v>
+        <v>34.23485086104759</v>
       </c>
       <c r="Y9" t="n">
         <v>125.2209214285714</v>
@@ -28013,13 +28013,13 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C10" t="n">
-        <v>170.8360944016073</v>
+        <v>79.50861457197151</v>
       </c>
       <c r="D10" t="n">
-        <v>72.89173304085723</v>
+        <v>45.13530232803132</v>
       </c>
       <c r="E10" t="n">
-        <v>48.97651316930937</v>
+        <v>48.9765131693089</v>
       </c>
       <c r="F10" t="n">
         <v>174.9399834978613</v>
@@ -28031,7 +28031,7 @@
         <v>136.9920546719889</v>
       </c>
       <c r="I10" t="n">
-        <v>82.6621924374279</v>
+        <v>82.66219243742789</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28067,13 +28067,13 @@
         <v>242.6944597176218</v>
       </c>
       <c r="U10" t="n">
-        <v>156.5554896577347</v>
+        <v>156.5554896577342</v>
       </c>
       <c r="V10" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
-        <v>150.2222298271107</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
         <v>242.9378371199217</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.378896410752983</v>
+        <v>0.3788964107529845</v>
       </c>
       <c r="H8" t="n">
-        <v>3.880372866623989</v>
+        <v>3.880372866624004</v>
       </c>
       <c r="I8" t="n">
-        <v>14.60740387555439</v>
+        <v>14.60740387555445</v>
       </c>
       <c r="J8" t="n">
-        <v>32.15835924214603</v>
+        <v>32.15835924214615</v>
       </c>
       <c r="K8" t="n">
-        <v>48.19704430931981</v>
+        <v>48.19704430931999</v>
       </c>
       <c r="L8" t="n">
-        <v>59.79269533990142</v>
+        <v>59.79269533990166</v>
       </c>
       <c r="M8" t="n">
-        <v>66.53089438462978</v>
+        <v>66.53089438463005</v>
       </c>
       <c r="N8" t="n">
-        <v>67.6074338116817</v>
+        <v>67.60743381168197</v>
       </c>
       <c r="O8" t="n">
-        <v>63.83978262725672</v>
+        <v>63.83978262725697</v>
       </c>
       <c r="P8" t="n">
-        <v>54.48577748679244</v>
+        <v>54.48577748679266</v>
       </c>
       <c r="Q8" t="n">
-        <v>40.91654977670122</v>
+        <v>40.91654977670139</v>
       </c>
       <c r="R8" t="n">
-        <v>23.80085166196209</v>
+        <v>23.80085166196218</v>
       </c>
       <c r="S8" t="n">
-        <v>8.634101960033609</v>
+        <v>8.634101960033643</v>
       </c>
       <c r="T8" t="n">
-        <v>1.658619038071184</v>
+        <v>1.658619038071191</v>
       </c>
       <c r="U8" t="n">
-        <v>0.03031171286023864</v>
+        <v>0.03031171286023876</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.2027274522250514</v>
+        <v>0.2027274522250522</v>
       </c>
       <c r="H9" t="n">
-        <v>1.957920393857734</v>
+        <v>1.957920393857741</v>
       </c>
       <c r="I9" t="n">
-        <v>6.979870613888832</v>
+        <v>6.97987061388886</v>
       </c>
       <c r="J9" t="n">
-        <v>19.15329845780629</v>
+        <v>19.15329845780636</v>
       </c>
       <c r="K9" t="n">
-        <v>32.73603775688473</v>
+        <v>32.73603775688485</v>
       </c>
       <c r="L9" t="n">
-        <v>44.0176426421104</v>
+        <v>44.01764264211057</v>
       </c>
       <c r="M9" t="n">
-        <v>51.3665127852685</v>
+        <v>51.3665127852687</v>
       </c>
       <c r="N9" t="n">
-        <v>52.72603153286546</v>
+        <v>52.72603153286566</v>
       </c>
       <c r="O9" t="n">
-        <v>48.23401798619458</v>
+        <v>48.23401798619476</v>
       </c>
       <c r="P9" t="n">
-        <v>38.71205182006267</v>
+        <v>38.71205182006283</v>
       </c>
       <c r="Q9" t="n">
-        <v>25.87798144542937</v>
+        <v>25.87798144542947</v>
       </c>
       <c r="R9" t="n">
-        <v>12.5868851477975</v>
+        <v>12.58688514779755</v>
       </c>
       <c r="S9" t="n">
-        <v>3.765573509531106</v>
+        <v>3.765573509531121</v>
       </c>
       <c r="T9" t="n">
-        <v>0.8171338973457113</v>
+        <v>0.8171338973457145</v>
       </c>
       <c r="U9" t="n">
-        <v>0.01333733238322707</v>
+        <v>0.01333733238322712</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1699598858889919</v>
+        <v>0.1699598858889926</v>
       </c>
       <c r="H10" t="n">
-        <v>1.511097894540311</v>
+        <v>1.511097894540317</v>
       </c>
       <c r="I10" t="n">
-        <v>5.111157295643503</v>
+        <v>5.111157295643523</v>
       </c>
       <c r="J10" t="n">
-        <v>12.01616393235173</v>
+        <v>12.01616393235177</v>
       </c>
       <c r="K10" t="n">
-        <v>19.74624856055742</v>
+        <v>19.74624856055749</v>
       </c>
       <c r="L10" t="n">
-        <v>25.26839976207794</v>
+        <v>25.26839976207804</v>
       </c>
       <c r="M10" t="n">
-        <v>26.64198465803533</v>
+        <v>26.64198465803544</v>
       </c>
       <c r="N10" t="n">
-        <v>26.00849781063093</v>
+        <v>26.00849781063103</v>
       </c>
       <c r="O10" t="n">
-        <v>24.02305732547315</v>
+        <v>24.02305732547325</v>
       </c>
       <c r="P10" t="n">
-        <v>20.5558756533377</v>
+        <v>20.55587565333778</v>
       </c>
       <c r="Q10" t="n">
-        <v>14.23182280839549</v>
+        <v>14.23182280839555</v>
       </c>
       <c r="R10" t="n">
-        <v>7.642014505517761</v>
+        <v>7.642014505517791</v>
       </c>
       <c r="S10" t="n">
-        <v>2.961937284083612</v>
+        <v>2.961937284083624</v>
       </c>
       <c r="T10" t="n">
-        <v>0.7261922397075106</v>
+        <v>0.7261922397075135</v>
       </c>
       <c r="U10" t="n">
-        <v>0.009270539230308659</v>
+        <v>0.009270539230308695</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31758,28 +31758,28 @@
         <v>19.21451706968723</v>
       </c>
       <c r="I11" t="n">
-        <v>72.33176314699061</v>
+        <v>72.3317631469906</v>
       </c>
       <c r="J11" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K11" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L11" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M11" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N11" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O11" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P11" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q11" t="n">
         <v>202.6072676879471</v>
@@ -31791,7 +31791,7 @@
         <v>42.75364899065037</v>
       </c>
       <c r="T11" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U11" t="n">
         <v>0.1500950924520911</v>
@@ -31834,13 +31834,13 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H12" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I12" t="n">
         <v>34.5623597691678</v>
       </c>
       <c r="J12" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562338</v>
       </c>
       <c r="K12" t="n">
         <v>162.0996687415861</v>
@@ -31852,25 +31852,25 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N12" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O12" t="n">
         <v>238.8413159742733</v>
       </c>
       <c r="P12" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q12" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R12" t="n">
-        <v>62.32672164233624</v>
+        <v>62.32672164233623</v>
       </c>
       <c r="S12" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T12" t="n">
-        <v>4.046217659600662</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U12" t="n">
         <v>0.06604272567356906</v>
@@ -31910,10 +31910,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.8415936408238412</v>
       </c>
       <c r="H13" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051976</v>
       </c>
       <c r="I13" t="n">
         <v>25.30901603495698</v>
@@ -31922,7 +31922,7 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K13" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L13" t="n">
         <v>125.1220218366646</v>
@@ -31946,10 +31946,10 @@
         <v>37.84111043195198</v>
       </c>
       <c r="S13" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T13" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U13" t="n">
         <v>0.04590510768130049</v>
@@ -31995,28 +31995,28 @@
         <v>19.21451706968723</v>
       </c>
       <c r="I14" t="n">
-        <v>72.33176314699061</v>
+        <v>72.3317631469906</v>
       </c>
       <c r="J14" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K14" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L14" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M14" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N14" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O14" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P14" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q14" t="n">
         <v>202.6072676879471</v>
@@ -32028,7 +32028,7 @@
         <v>42.75364899065037</v>
       </c>
       <c r="T14" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U14" t="n">
         <v>0.1500950924520911</v>
@@ -32071,13 +32071,13 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H15" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I15" t="n">
         <v>34.5623597691678</v>
       </c>
       <c r="J15" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562338</v>
       </c>
       <c r="K15" t="n">
         <v>162.0996687415861</v>
@@ -32089,25 +32089,25 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N15" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O15" t="n">
         <v>238.8413159742733</v>
       </c>
       <c r="P15" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q15" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R15" t="n">
-        <v>62.32672164233624</v>
+        <v>62.32672164233623</v>
       </c>
       <c r="S15" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T15" t="n">
-        <v>4.046217659600662</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U15" t="n">
         <v>0.06604272567356906</v>
@@ -32147,10 +32147,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.8415936408238412</v>
       </c>
       <c r="H16" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051976</v>
       </c>
       <c r="I16" t="n">
         <v>25.30901603495698</v>
@@ -32159,7 +32159,7 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K16" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L16" t="n">
         <v>125.1220218366646</v>
@@ -32183,10 +32183,10 @@
         <v>37.84111043195198</v>
       </c>
       <c r="S16" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T16" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U16" t="n">
         <v>0.04590510768130049</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.876188655651139</v>
+        <v>1.876188655651138</v>
       </c>
       <c r="H23" t="n">
         <v>19.21451706968723</v>
       </c>
       <c r="I23" t="n">
-        <v>72.33176314699061</v>
+        <v>72.33176314699058</v>
       </c>
       <c r="J23" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K23" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L23" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M23" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N23" t="n">
-        <v>334.7730322994721</v>
+        <v>334.773032299472</v>
       </c>
       <c r="O23" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P23" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q23" t="n">
-        <v>202.6072676879471</v>
+        <v>202.607267687947</v>
       </c>
       <c r="R23" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405459</v>
       </c>
       <c r="S23" t="n">
-        <v>42.75364899065037</v>
+        <v>42.75364899065036</v>
       </c>
       <c r="T23" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U23" t="n">
-        <v>0.1500950924520911</v>
+        <v>0.150095092452091</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32782,46 +32782,46 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H24" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I24" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J24" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562336</v>
       </c>
       <c r="K24" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L24" t="n">
         <v>217.963008964669</v>
       </c>
       <c r="M24" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108054</v>
       </c>
       <c r="N24" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O24" t="n">
-        <v>238.8413159742733</v>
+        <v>238.8413159742732</v>
       </c>
       <c r="P24" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q24" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R24" t="n">
-        <v>62.32672164233624</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S24" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T24" t="n">
-        <v>4.046217659600662</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U24" t="n">
-        <v>0.06604272567356906</v>
+        <v>0.06604272567356904</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,19 +32858,19 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.8415936408238411</v>
       </c>
       <c r="H25" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051975</v>
       </c>
       <c r="I25" t="n">
         <v>25.30901603495698</v>
       </c>
       <c r="J25" t="n">
-        <v>59.50067040624558</v>
+        <v>59.50067040624557</v>
       </c>
       <c r="K25" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L25" t="n">
         <v>125.1220218366646</v>
@@ -32879,28 +32879,28 @@
         <v>131.9236286247772</v>
       </c>
       <c r="N25" t="n">
-        <v>128.7867795998885</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O25" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P25" t="n">
-        <v>101.7869254320035</v>
+        <v>101.7869254320034</v>
       </c>
       <c r="Q25" t="n">
-        <v>70.47199114207639</v>
+        <v>70.47199114207638</v>
       </c>
       <c r="R25" t="n">
         <v>37.84111043195198</v>
       </c>
       <c r="S25" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T25" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U25" t="n">
-        <v>0.04590510768130049</v>
+        <v>0.04590510768130048</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1.876188655651139</v>
+        <v>1.876188655651138</v>
       </c>
       <c r="H26" t="n">
         <v>19.21451706968723</v>
       </c>
       <c r="I26" t="n">
-        <v>72.33176314699061</v>
+        <v>72.33176314699058</v>
       </c>
       <c r="J26" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K26" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L26" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M26" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N26" t="n">
-        <v>334.7730322994722</v>
+        <v>334.773032299472</v>
       </c>
       <c r="O26" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P26" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q26" t="n">
-        <v>202.6072676879471</v>
+        <v>202.607267687947</v>
       </c>
       <c r="R26" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405459</v>
       </c>
       <c r="S26" t="n">
-        <v>42.75364899065038</v>
+        <v>42.75364899065036</v>
       </c>
       <c r="T26" t="n">
-        <v>8.213015840112867</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U26" t="n">
-        <v>0.1500950924520911</v>
+        <v>0.150095092452091</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33019,46 +33019,46 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H27" t="n">
-        <v>9.695072128879938</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I27" t="n">
-        <v>34.56235976916781</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J27" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562336</v>
       </c>
       <c r="K27" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L27" t="n">
-        <v>217.9630089646691</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M27" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108054</v>
       </c>
       <c r="N27" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O27" t="n">
-        <v>238.8413159742733</v>
+        <v>238.8413159742732</v>
       </c>
       <c r="P27" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q27" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R27" t="n">
-        <v>62.32672164233625</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S27" t="n">
-        <v>18.64606288183765</v>
+        <v>18.64606288183764</v>
       </c>
       <c r="T27" t="n">
-        <v>4.046217659600662</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U27" t="n">
-        <v>0.06604272567356907</v>
+        <v>0.06604272567356904</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.8415936408238415</v>
+        <v>0.8415936408238411</v>
       </c>
       <c r="H28" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051975</v>
       </c>
       <c r="I28" t="n">
-        <v>25.30901603495699</v>
+        <v>25.30901603495698</v>
       </c>
       <c r="J28" t="n">
-        <v>59.50067040624559</v>
+        <v>59.50067040624557</v>
       </c>
       <c r="K28" t="n">
-        <v>97.77787936116992</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L28" t="n">
         <v>125.1220218366646</v>
       </c>
       <c r="M28" t="n">
-        <v>131.9236286247773</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N28" t="n">
-        <v>128.7867795998885</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O28" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P28" t="n">
-        <v>101.7869254320035</v>
+        <v>101.7869254320034</v>
       </c>
       <c r="Q28" t="n">
-        <v>70.4719911420764</v>
+        <v>70.47199114207638</v>
       </c>
       <c r="R28" t="n">
-        <v>37.84111043195199</v>
+        <v>37.84111043195198</v>
       </c>
       <c r="S28" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T28" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U28" t="n">
-        <v>0.0459051076813005</v>
+        <v>0.04590510768130048</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1.876188655651139</v>
+        <v>1.876188655651138</v>
       </c>
       <c r="H29" t="n">
         <v>19.21451706968723</v>
       </c>
       <c r="I29" t="n">
-        <v>72.33176314699061</v>
+        <v>72.33176314699058</v>
       </c>
       <c r="J29" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K29" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L29" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M29" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N29" t="n">
-        <v>334.7730322994722</v>
+        <v>334.773032299472</v>
       </c>
       <c r="O29" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P29" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q29" t="n">
-        <v>202.6072676879471</v>
+        <v>202.607267687947</v>
       </c>
       <c r="R29" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405459</v>
       </c>
       <c r="S29" t="n">
-        <v>42.75364899065038</v>
+        <v>42.75364899065036</v>
       </c>
       <c r="T29" t="n">
-        <v>8.213015840112867</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U29" t="n">
-        <v>0.1500950924520911</v>
+        <v>0.150095092452091</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33256,46 +33256,46 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H30" t="n">
-        <v>9.695072128879938</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I30" t="n">
-        <v>34.56235976916781</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J30" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562353</v>
       </c>
       <c r="K30" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L30" t="n">
-        <v>217.9630089646691</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M30" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108054</v>
       </c>
       <c r="N30" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O30" t="n">
-        <v>238.8413159742733</v>
+        <v>238.8413159742732</v>
       </c>
       <c r="P30" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q30" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R30" t="n">
-        <v>62.32672164233625</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S30" t="n">
-        <v>18.64606288183765</v>
+        <v>18.64606288183764</v>
       </c>
       <c r="T30" t="n">
-        <v>4.046217659600662</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U30" t="n">
-        <v>0.06604272567356907</v>
+        <v>0.06604272567356904</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.8415936408238415</v>
+        <v>0.8415936408238411</v>
       </c>
       <c r="H31" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051975</v>
       </c>
       <c r="I31" t="n">
-        <v>25.30901603495699</v>
+        <v>25.30901603495698</v>
       </c>
       <c r="J31" t="n">
-        <v>59.50067040624559</v>
+        <v>59.50067040624557</v>
       </c>
       <c r="K31" t="n">
-        <v>97.77787936116992</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L31" t="n">
         <v>125.1220218366646</v>
       </c>
       <c r="M31" t="n">
-        <v>131.9236286247773</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N31" t="n">
-        <v>128.7867795998885</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O31" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P31" t="n">
-        <v>101.7869254320035</v>
+        <v>101.7869254320034</v>
       </c>
       <c r="Q31" t="n">
-        <v>70.4719911420764</v>
+        <v>70.47199114207638</v>
       </c>
       <c r="R31" t="n">
-        <v>37.84111043195199</v>
+        <v>37.84111043195198</v>
       </c>
       <c r="S31" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T31" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U31" t="n">
-        <v>0.0459051076813005</v>
+        <v>0.04590510768130048</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33417,28 +33417,28 @@
         <v>19.21451706968723</v>
       </c>
       <c r="I32" t="n">
-        <v>72.33176314699061</v>
+        <v>72.3317631469906</v>
       </c>
       <c r="J32" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K32" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L32" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M32" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N32" t="n">
-        <v>334.7730322994722</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O32" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P32" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q32" t="n">
         <v>202.6072676879471</v>
@@ -33447,10 +33447,10 @@
         <v>117.855135640546</v>
       </c>
       <c r="S32" t="n">
-        <v>42.75364899065038</v>
+        <v>42.75364899065037</v>
       </c>
       <c r="T32" t="n">
-        <v>8.213015840112867</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U32" t="n">
         <v>0.1500950924520911</v>
@@ -33493,46 +33493,46 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H33" t="n">
-        <v>9.695072128879938</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I33" t="n">
-        <v>34.56235976916781</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J33" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562338</v>
       </c>
       <c r="K33" t="n">
         <v>162.0996687415861</v>
       </c>
       <c r="L33" t="n">
-        <v>217.9630089646691</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M33" t="n">
         <v>254.3525508108055</v>
       </c>
       <c r="N33" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O33" t="n">
         <v>238.8413159742733</v>
       </c>
       <c r="P33" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q33" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R33" t="n">
-        <v>62.32672164233625</v>
+        <v>62.32672164233623</v>
       </c>
       <c r="S33" t="n">
-        <v>18.64606288183765</v>
+        <v>18.64606288183764</v>
       </c>
       <c r="T33" t="n">
-        <v>4.046217659600662</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U33" t="n">
-        <v>0.06604272567356907</v>
+        <v>0.06604272567356906</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,25 +33569,25 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.8415936408238415</v>
+        <v>0.8415936408238412</v>
       </c>
       <c r="H34" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051976</v>
       </c>
       <c r="I34" t="n">
-        <v>25.30901603495699</v>
+        <v>25.30901603495698</v>
       </c>
       <c r="J34" t="n">
-        <v>59.50067040624559</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K34" t="n">
-        <v>97.77787936116992</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L34" t="n">
         <v>125.1220218366646</v>
       </c>
       <c r="M34" t="n">
-        <v>131.9236286247773</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N34" t="n">
         <v>128.7867795998885</v>
@@ -33599,19 +33599,19 @@
         <v>101.7869254320035</v>
       </c>
       <c r="Q34" t="n">
-        <v>70.4719911420764</v>
+        <v>70.47199114207639</v>
       </c>
       <c r="R34" t="n">
-        <v>37.84111043195199</v>
+        <v>37.84111043195198</v>
       </c>
       <c r="S34" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T34" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U34" t="n">
-        <v>0.0459051076813005</v>
+        <v>0.04590510768130049</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.876188655651139</v>
+        <v>1.876188655651138</v>
       </c>
       <c r="H35" t="n">
         <v>19.21451706968723</v>
       </c>
       <c r="I35" t="n">
-        <v>72.33176314699061</v>
+        <v>72.33176314699058</v>
       </c>
       <c r="J35" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K35" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L35" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M35" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N35" t="n">
-        <v>334.7730322994722</v>
+        <v>334.773032299472</v>
       </c>
       <c r="O35" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P35" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q35" t="n">
-        <v>202.6072676879471</v>
+        <v>202.607267687947</v>
       </c>
       <c r="R35" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405459</v>
       </c>
       <c r="S35" t="n">
-        <v>42.75364899065038</v>
+        <v>42.75364899065036</v>
       </c>
       <c r="T35" t="n">
-        <v>8.213015840112867</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U35" t="n">
-        <v>0.1500950924520911</v>
+        <v>0.150095092452091</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33730,46 +33730,46 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H36" t="n">
-        <v>9.695072128879938</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I36" t="n">
-        <v>34.56235976916781</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J36" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562336</v>
       </c>
       <c r="K36" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L36" t="n">
-        <v>217.9630089646691</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M36" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108054</v>
       </c>
       <c r="N36" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O36" t="n">
-        <v>238.8413159742733</v>
+        <v>238.8413159742732</v>
       </c>
       <c r="P36" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q36" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R36" t="n">
-        <v>62.32672164233625</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S36" t="n">
-        <v>18.64606288183765</v>
+        <v>18.64606288183764</v>
       </c>
       <c r="T36" t="n">
-        <v>4.046217659600662</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U36" t="n">
-        <v>0.06604272567356907</v>
+        <v>0.06604272567356904</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.8415936408238415</v>
+        <v>0.8415936408238411</v>
       </c>
       <c r="H37" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051975</v>
       </c>
       <c r="I37" t="n">
-        <v>25.30901603495699</v>
+        <v>25.30901603495698</v>
       </c>
       <c r="J37" t="n">
-        <v>59.50067040624559</v>
+        <v>59.50067040624557</v>
       </c>
       <c r="K37" t="n">
-        <v>97.77787936116992</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L37" t="n">
         <v>125.1220218366646</v>
       </c>
       <c r="M37" t="n">
-        <v>131.9236286247773</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N37" t="n">
-        <v>128.7867795998885</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O37" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P37" t="n">
-        <v>101.7869254320035</v>
+        <v>101.7869254320034</v>
       </c>
       <c r="Q37" t="n">
-        <v>70.4719911420764</v>
+        <v>70.47199114207638</v>
       </c>
       <c r="R37" t="n">
-        <v>37.84111043195199</v>
+        <v>37.84111043195198</v>
       </c>
       <c r="S37" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T37" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U37" t="n">
-        <v>0.0459051076813005</v>
+        <v>0.04590510768130048</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1.876188655651139</v>
+        <v>1.876188655651138</v>
       </c>
       <c r="H38" t="n">
         <v>19.21451706968723</v>
       </c>
       <c r="I38" t="n">
-        <v>72.33176314699061</v>
+        <v>72.33176314699058</v>
       </c>
       <c r="J38" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K38" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L38" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M38" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N38" t="n">
-        <v>334.7730322994722</v>
+        <v>334.773032299472</v>
       </c>
       <c r="O38" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P38" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q38" t="n">
-        <v>202.6072676879471</v>
+        <v>202.607267687947</v>
       </c>
       <c r="R38" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405459</v>
       </c>
       <c r="S38" t="n">
-        <v>42.75364899065038</v>
+        <v>42.75364899065036</v>
       </c>
       <c r="T38" t="n">
-        <v>8.213015840112867</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U38" t="n">
-        <v>0.1500950924520911</v>
+        <v>0.150095092452091</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33967,46 +33967,46 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H39" t="n">
-        <v>9.695072128879938</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I39" t="n">
-        <v>34.56235976916781</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J39" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562336</v>
       </c>
       <c r="K39" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L39" t="n">
-        <v>217.9630089646691</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M39" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108054</v>
       </c>
       <c r="N39" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O39" t="n">
-        <v>238.8413159742733</v>
+        <v>238.8413159742732</v>
       </c>
       <c r="P39" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917234</v>
       </c>
       <c r="Q39" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R39" t="n">
-        <v>62.32672164233625</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S39" t="n">
-        <v>18.64606288183765</v>
+        <v>18.64606288183764</v>
       </c>
       <c r="T39" t="n">
-        <v>4.046217659600662</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U39" t="n">
-        <v>0.06604272567356907</v>
+        <v>0.06604272567356904</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.8415936408238415</v>
+        <v>0.8415936408238411</v>
       </c>
       <c r="H40" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051975</v>
       </c>
       <c r="I40" t="n">
-        <v>25.30901603495699</v>
+        <v>25.30901603495698</v>
       </c>
       <c r="J40" t="n">
-        <v>59.50067040624559</v>
+        <v>59.50067040624557</v>
       </c>
       <c r="K40" t="n">
-        <v>97.77787936116992</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L40" t="n">
         <v>125.1220218366646</v>
       </c>
       <c r="M40" t="n">
-        <v>131.9236286247773</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N40" t="n">
-        <v>128.7867795998885</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O40" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P40" t="n">
-        <v>101.7869254320035</v>
+        <v>101.7869254320034</v>
       </c>
       <c r="Q40" t="n">
-        <v>70.4719911420764</v>
+        <v>70.47199114207638</v>
       </c>
       <c r="R40" t="n">
-        <v>37.84111043195199</v>
+        <v>37.84111043195198</v>
       </c>
       <c r="S40" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T40" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U40" t="n">
-        <v>0.0459051076813005</v>
+        <v>0.04590510768130048</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.876188655651139</v>
+        <v>1.876188655651138</v>
       </c>
       <c r="H41" t="n">
         <v>19.21451706968723</v>
       </c>
       <c r="I41" t="n">
-        <v>72.33176314699061</v>
+        <v>72.33176314699058</v>
       </c>
       <c r="J41" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125709</v>
       </c>
       <c r="K41" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L41" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M41" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N41" t="n">
-        <v>334.7730322994722</v>
+        <v>334.773032299472</v>
       </c>
       <c r="O41" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P41" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184534</v>
       </c>
       <c r="Q41" t="n">
-        <v>202.6072676879471</v>
+        <v>202.607267687947</v>
       </c>
       <c r="R41" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405459</v>
       </c>
       <c r="S41" t="n">
-        <v>42.75364899065038</v>
+        <v>42.75364899065035</v>
       </c>
       <c r="T41" t="n">
-        <v>8.213015840112867</v>
+        <v>8.213015840112861</v>
       </c>
       <c r="U41" t="n">
-        <v>0.1500950924520911</v>
+        <v>0.150095092452091</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34204,46 +34204,46 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H42" t="n">
-        <v>9.695072128879938</v>
+        <v>9.695072128879932</v>
       </c>
       <c r="I42" t="n">
-        <v>34.56235976916781</v>
+        <v>34.56235976916778</v>
       </c>
       <c r="J42" t="n">
-        <v>94.84175691562339</v>
+        <v>94.8417569156242</v>
       </c>
       <c r="K42" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L42" t="n">
-        <v>217.9630089646691</v>
+        <v>217.9630089646689</v>
       </c>
       <c r="M42" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108054</v>
       </c>
       <c r="N42" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O42" t="n">
-        <v>238.8413159742733</v>
+        <v>238.8413159742732</v>
       </c>
       <c r="P42" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q42" t="n">
-        <v>128.1404992002369</v>
+        <v>128.1404992002368</v>
       </c>
       <c r="R42" t="n">
-        <v>62.32672164233625</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S42" t="n">
-        <v>18.64606288183765</v>
+        <v>18.64606288183764</v>
       </c>
       <c r="T42" t="n">
-        <v>4.046217659600662</v>
+        <v>4.04621765960066</v>
       </c>
       <c r="U42" t="n">
-        <v>0.06604272567356907</v>
+        <v>0.06604272567356904</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.8415936408238415</v>
+        <v>0.841593640823841</v>
       </c>
       <c r="H43" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051974</v>
       </c>
       <c r="I43" t="n">
-        <v>25.30901603495699</v>
+        <v>25.30901603495697</v>
       </c>
       <c r="J43" t="n">
-        <v>59.50067040624559</v>
+        <v>59.50067040624556</v>
       </c>
       <c r="K43" t="n">
-        <v>97.77787936116992</v>
+        <v>97.77787936116988</v>
       </c>
       <c r="L43" t="n">
-        <v>125.1220218366646</v>
+        <v>125.1220218366645</v>
       </c>
       <c r="M43" t="n">
-        <v>131.9236286247773</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N43" t="n">
-        <v>128.7867795998885</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O43" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P43" t="n">
-        <v>101.7869254320035</v>
+        <v>101.7869254320034</v>
       </c>
       <c r="Q43" t="n">
-        <v>70.4719911420764</v>
+        <v>70.47199114207636</v>
       </c>
       <c r="R43" t="n">
-        <v>37.84111043195199</v>
+        <v>37.84111043195197</v>
       </c>
       <c r="S43" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T43" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701865</v>
       </c>
       <c r="U43" t="n">
-        <v>0.0459051076813005</v>
+        <v>0.04590510768130047</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.876188655651139</v>
+        <v>1.876188655651138</v>
       </c>
       <c r="H44" t="n">
         <v>19.21451706968723</v>
       </c>
       <c r="I44" t="n">
-        <v>72.33176314699061</v>
+        <v>72.33176314699058</v>
       </c>
       <c r="J44" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125709</v>
       </c>
       <c r="K44" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L44" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M44" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N44" t="n">
-        <v>334.7730322994722</v>
+        <v>334.773032299472</v>
       </c>
       <c r="O44" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P44" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184534</v>
       </c>
       <c r="Q44" t="n">
-        <v>202.6072676879471</v>
+        <v>202.607267687947</v>
       </c>
       <c r="R44" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405459</v>
       </c>
       <c r="S44" t="n">
-        <v>42.75364899065038</v>
+        <v>42.75364899065035</v>
       </c>
       <c r="T44" t="n">
-        <v>8.213015840112867</v>
+        <v>8.213015840112861</v>
       </c>
       <c r="U44" t="n">
-        <v>0.1500950924520911</v>
+        <v>0.150095092452091</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34441,46 +34441,46 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H45" t="n">
-        <v>9.695072128879938</v>
+        <v>9.695072128879932</v>
       </c>
       <c r="I45" t="n">
-        <v>34.56235976916781</v>
+        <v>34.56235976916778</v>
       </c>
       <c r="J45" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562335</v>
       </c>
       <c r="K45" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L45" t="n">
-        <v>217.9630089646691</v>
+        <v>217.9630089646689</v>
       </c>
       <c r="M45" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108054</v>
       </c>
       <c r="N45" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O45" t="n">
-        <v>238.8413159742733</v>
+        <v>238.8413159742732</v>
       </c>
       <c r="P45" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917241</v>
       </c>
       <c r="Q45" t="n">
-        <v>128.1404992002369</v>
+        <v>128.1404992002368</v>
       </c>
       <c r="R45" t="n">
-        <v>62.32672164233625</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S45" t="n">
-        <v>18.64606288183765</v>
+        <v>18.64606288183764</v>
       </c>
       <c r="T45" t="n">
-        <v>4.046217659600662</v>
+        <v>4.04621765960066</v>
       </c>
       <c r="U45" t="n">
-        <v>0.06604272567356907</v>
+        <v>0.06604272567356904</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.8415936408238415</v>
+        <v>0.841593640823841</v>
       </c>
       <c r="H46" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051974</v>
       </c>
       <c r="I46" t="n">
-        <v>25.30901603495699</v>
+        <v>25.30901603495697</v>
       </c>
       <c r="J46" t="n">
-        <v>59.50067040624559</v>
+        <v>59.50067040624556</v>
       </c>
       <c r="K46" t="n">
-        <v>97.77787936116992</v>
+        <v>97.77787936116988</v>
       </c>
       <c r="L46" t="n">
-        <v>125.1220218366646</v>
+        <v>125.1220218366645</v>
       </c>
       <c r="M46" t="n">
-        <v>131.9236286247773</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N46" t="n">
-        <v>128.7867795998885</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O46" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P46" t="n">
-        <v>101.7869254320035</v>
+        <v>101.7869254320034</v>
       </c>
       <c r="Q46" t="n">
-        <v>70.4719911420764</v>
+        <v>70.47199114207636</v>
       </c>
       <c r="R46" t="n">
-        <v>37.84111043195199</v>
+        <v>37.84111043195197</v>
       </c>
       <c r="S46" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T46" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701865</v>
       </c>
       <c r="U46" t="n">
-        <v>0.0459051076813005</v>
+        <v>0.04590510768130047</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35169,34 +35169,34 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>14.194782396423</v>
+        <v>14.19478239642305</v>
       </c>
       <c r="J8" t="n">
-        <v>32.15835924214603</v>
+        <v>32.15835924214615</v>
       </c>
       <c r="K8" t="n">
-        <v>48.19704430931981</v>
+        <v>48.19704430932001</v>
       </c>
       <c r="L8" t="n">
-        <v>59.79269533990143</v>
+        <v>59.79269533990166</v>
       </c>
       <c r="M8" t="n">
-        <v>66.53089438462979</v>
+        <v>66.53089438463005</v>
       </c>
       <c r="N8" t="n">
-        <v>67.60743381168169</v>
+        <v>67.60743381168197</v>
       </c>
       <c r="O8" t="n">
-        <v>63.83978262725674</v>
+        <v>63.83978262725697</v>
       </c>
       <c r="P8" t="n">
-        <v>54.48577748679247</v>
+        <v>54.48577748679264</v>
       </c>
       <c r="Q8" t="n">
-        <v>40.91654977670123</v>
+        <v>40.9165497767014</v>
       </c>
       <c r="R8" t="n">
-        <v>23.80085166196204</v>
+        <v>23.80085166196221</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35248,34 +35248,34 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>6.979870613888833</v>
+        <v>6.979870613888862</v>
       </c>
       <c r="J9" t="n">
-        <v>19.15329845780629</v>
+        <v>19.15329845780636</v>
       </c>
       <c r="K9" t="n">
-        <v>32.73603775688473</v>
+        <v>32.73603775688485</v>
       </c>
       <c r="L9" t="n">
-        <v>44.0176426421104</v>
+        <v>44.01764264211057</v>
       </c>
       <c r="M9" t="n">
-        <v>51.36651278526851</v>
+        <v>51.3665127852687</v>
       </c>
       <c r="N9" t="n">
-        <v>52.72603153286545</v>
+        <v>52.72603153286565</v>
       </c>
       <c r="O9" t="n">
-        <v>48.23401798619457</v>
+        <v>48.23401798619477</v>
       </c>
       <c r="P9" t="n">
-        <v>38.7120518200627</v>
+        <v>71.34886727390568</v>
       </c>
       <c r="Q9" t="n">
-        <v>58.51479689927208</v>
+        <v>25.8779814454295</v>
       </c>
       <c r="R9" t="n">
-        <v>119.0839105424607</v>
+        <v>119.0839105424612</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>99.4703913714324</v>
+        <v>99.47039137143244</v>
       </c>
       <c r="K10" t="n">
-        <v>119.0839105424607</v>
+        <v>119.0839105424612</v>
       </c>
       <c r="L10" t="n">
-        <v>25.26839976207793</v>
+        <v>36.65654313298381</v>
       </c>
       <c r="M10" t="n">
-        <v>38.03012802894071</v>
+        <v>26.64198465803543</v>
       </c>
       <c r="N10" t="n">
-        <v>26.00849781063096</v>
+        <v>26.00849781063101</v>
       </c>
       <c r="O10" t="n">
-        <v>24.02305732547313</v>
+        <v>24.02305732547325</v>
       </c>
       <c r="P10" t="n">
-        <v>20.55587565333769</v>
+        <v>20.55587565333781</v>
       </c>
       <c r="Q10" t="n">
-        <v>119.0839105424607</v>
+        <v>119.0839105424612</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,16 +35406,16 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785919</v>
       </c>
       <c r="J11" t="n">
-        <v>159.2391669125714</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K11" t="n">
         <v>238.6582327062838</v>
       </c>
       <c r="L11" t="n">
-        <v>296.0766412766677</v>
+        <v>296.0766412766675</v>
       </c>
       <c r="M11" t="n">
         <v>329.4423112816032</v>
@@ -35424,13 +35424,13 @@
         <v>334.7730322994721</v>
       </c>
       <c r="O11" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548409</v>
       </c>
       <c r="P11" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q11" t="n">
-        <v>202.6072676879467</v>
+        <v>202.6072676879471</v>
       </c>
       <c r="R11" t="n">
         <v>117.855135640546</v>
@@ -35485,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>34.56235976916781</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J12" t="n">
         <v>94.84175691562339</v>
@@ -35500,7 +35500,7 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N12" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O12" t="n">
         <v>238.8413159742734</v>
@@ -35567,25 +35567,25 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>146.9548978453263</v>
+        <v>146.9548978453262</v>
       </c>
       <c r="K13" t="n">
         <v>375.3116718572664</v>
       </c>
       <c r="L13" t="n">
-        <v>125.1220218366645</v>
+        <v>547.556245844706</v>
       </c>
       <c r="M13" t="n">
-        <v>590.0818943619341</v>
+        <v>590.081894361934</v>
       </c>
       <c r="N13" t="n">
-        <v>128.7867795998884</v>
+        <v>198.8376634256981</v>
       </c>
       <c r="O13" t="n">
-        <v>260.4234789221546</v>
+        <v>118.9554357048098</v>
       </c>
       <c r="P13" t="n">
-        <v>452.8039900485103</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q13" t="n">
         <v>240.36368292423</v>
@@ -35643,16 +35643,16 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785919</v>
       </c>
       <c r="J14" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K14" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L14" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M14" t="n">
         <v>329.4423112816032</v>
@@ -35664,7 +35664,7 @@
         <v>316.1166813548411</v>
       </c>
       <c r="P14" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q14" t="n">
         <v>202.6072676879471</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>34.56235976916781</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J15" t="n">
         <v>94.84175691562339</v>
@@ -35734,7 +35734,7 @@
         <v>217.963008964669</v>
       </c>
       <c r="M15" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108056</v>
       </c>
       <c r="N15" t="n">
         <v>261.0845059811313</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>146.9548978453263</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K16" t="n">
-        <v>375.3116718572664</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L16" t="n">
-        <v>547.556245844706</v>
+        <v>547.5562458447062</v>
       </c>
       <c r="M16" t="n">
-        <v>309.1157135712369</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N16" t="n">
-        <v>128.7867795998884</v>
+        <v>575.512843395489</v>
       </c>
       <c r="O16" t="n">
-        <v>118.9554357048098</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P16" t="n">
-        <v>452.8039900485103</v>
+        <v>294.2413903654056</v>
       </c>
       <c r="Q16" t="n">
-        <v>240.3636829242305</v>
+        <v>70.4719911420766</v>
       </c>
       <c r="R16" t="n">
         <v>16.63746735027015</v>
@@ -35892,7 +35892,7 @@
         <v>296.0766412766674</v>
       </c>
       <c r="M17" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N17" t="n">
         <v>334.7730322994721</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>34.56235976916779</v>
+        <v>34.56235976916781</v>
       </c>
       <c r="J18" t="n">
         <v>94.84175691562339</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>146.9548978453262</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K19" t="n">
-        <v>375.3116718572664</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L19" t="n">
-        <v>547.556245844706</v>
+        <v>547.5562458447062</v>
       </c>
       <c r="M19" t="n">
-        <v>309.1157135712365</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N19" t="n">
-        <v>128.7867795998884</v>
+        <v>575.512843395489</v>
       </c>
       <c r="O19" t="n">
-        <v>118.9554357048098</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P19" t="n">
-        <v>452.8039900485103</v>
+        <v>294.241390365406</v>
       </c>
       <c r="Q19" t="n">
-        <v>240.3636829242305</v>
+        <v>70.4719911420766</v>
       </c>
       <c r="R19" t="n">
         <v>16.63746735027015</v>
@@ -36120,7 +36120,7 @@
         <v>71.91914166785921</v>
       </c>
       <c r="J20" t="n">
-        <v>159.2391669125709</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K20" t="n">
         <v>238.6582327062838</v>
@@ -36129,7 +36129,7 @@
         <v>296.0766412766674</v>
       </c>
       <c r="M20" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N20" t="n">
         <v>334.7730322994721</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>146.9548978453263</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K22" t="n">
-        <v>375.3116718572664</v>
+        <v>254.5083025654566</v>
       </c>
       <c r="L22" t="n">
-        <v>547.556245844706</v>
+        <v>125.1220218366646</v>
       </c>
       <c r="M22" t="n">
-        <v>131.9236286247772</v>
+        <v>590.0818943619342</v>
       </c>
       <c r="N22" t="n">
-        <v>128.7867795998884</v>
+        <v>575.5128433954892</v>
       </c>
       <c r="O22" t="n">
-        <v>296.1475206512696</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P22" t="n">
-        <v>452.8039900485103</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q22" t="n">
-        <v>240.3636829242305</v>
+        <v>70.4719911420766</v>
       </c>
       <c r="R22" t="n">
         <v>16.63746735027015</v>
@@ -36354,7 +36354,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785918</v>
       </c>
       <c r="J23" t="n">
         <v>159.239166912571</v>
@@ -36363,19 +36363,19 @@
         <v>238.6582327062837</v>
       </c>
       <c r="L23" t="n">
-        <v>296.0766412766677</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M23" t="n">
         <v>329.4423112816032</v>
       </c>
       <c r="N23" t="n">
-        <v>334.7730322994723</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O23" t="n">
         <v>316.1166813548409</v>
       </c>
       <c r="P23" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q23" t="n">
         <v>202.6072676879471</v>
@@ -36433,16 +36433,16 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>34.56235976916781</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J24" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562336</v>
       </c>
       <c r="K24" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L24" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646689</v>
       </c>
       <c r="M24" t="n">
         <v>254.3525508108055</v>
@@ -36460,7 +36460,7 @@
         <v>128.1404992002369</v>
       </c>
       <c r="R24" t="n">
-        <v>62.32672164233622</v>
+        <v>62.32672164233645</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,31 +36515,31 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>59.50067040624558</v>
+        <v>146.9548978453262</v>
       </c>
       <c r="K25" t="n">
-        <v>97.77787936116989</v>
+        <v>375.3116718572664</v>
       </c>
       <c r="L25" t="n">
-        <v>281.8524450409517</v>
+        <v>125.1220218366645</v>
       </c>
       <c r="M25" t="n">
-        <v>590.0818943619342</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="N25" t="n">
-        <v>575.512843395489</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O25" t="n">
-        <v>542.8637682561041</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P25" t="n">
-        <v>101.7869254320035</v>
+        <v>170.3637007145596</v>
       </c>
       <c r="Q25" t="n">
-        <v>70.4719911420766</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R25" t="n">
-        <v>16.63746735027015</v>
+        <v>16.63746735027014</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -36591,16 +36591,16 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785918</v>
       </c>
       <c r="J26" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125709</v>
       </c>
       <c r="K26" t="n">
-        <v>238.6582327062839</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L26" t="n">
-        <v>296.0766412766675</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M26" t="n">
         <v>329.4423112816032</v>
@@ -36609,10 +36609,10 @@
         <v>334.7730322994721</v>
       </c>
       <c r="O26" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548409</v>
       </c>
       <c r="P26" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q26" t="n">
         <v>202.6072676879471</v>
@@ -36670,13 +36670,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916796</v>
       </c>
       <c r="J27" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562336</v>
       </c>
       <c r="K27" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L27" t="n">
         <v>217.963008964669</v>
@@ -36752,31 +36752,31 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>59.50067040624559</v>
+        <v>146.9548978453262</v>
       </c>
       <c r="K28" t="n">
-        <v>97.77787936116994</v>
+        <v>97.77787936116988</v>
       </c>
       <c r="L28" t="n">
-        <v>388.9936461616015</v>
+        <v>547.556245844706</v>
       </c>
       <c r="M28" t="n">
-        <v>131.9236286247773</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N28" t="n">
-        <v>575.5128433954891</v>
+        <v>575.512843395489</v>
       </c>
       <c r="O28" t="n">
-        <v>542.8637682561048</v>
+        <v>126.9552493517656</v>
       </c>
       <c r="P28" t="n">
         <v>452.8039900485103</v>
       </c>
       <c r="Q28" t="n">
-        <v>70.4719911420766</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R28" t="n">
-        <v>16.63746735027015</v>
+        <v>16.63746735027014</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -36828,10 +36828,10 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785918</v>
       </c>
       <c r="J29" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125709</v>
       </c>
       <c r="K29" t="n">
         <v>238.6582327062838</v>
@@ -36840,16 +36840,16 @@
         <v>296.0766412766674</v>
       </c>
       <c r="M29" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816031</v>
       </c>
       <c r="N29" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O29" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548409</v>
       </c>
       <c r="P29" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q29" t="n">
         <v>202.6072676879471</v>
@@ -36907,13 +36907,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>34.56235976916781</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J30" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562353</v>
       </c>
       <c r="K30" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L30" t="n">
         <v>217.963008964669</v>
@@ -36989,19 +36989,19 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>59.5006704062456</v>
+        <v>59.50067040624557</v>
       </c>
       <c r="K31" t="n">
-        <v>97.77787936116994</v>
+        <v>375.3116718572664</v>
       </c>
       <c r="L31" t="n">
-        <v>281.8524450409515</v>
+        <v>125.1220218366645</v>
       </c>
       <c r="M31" t="n">
-        <v>590.0818943619342</v>
+        <v>299.3868332879707</v>
       </c>
       <c r="N31" t="n">
-        <v>575.512843395489</v>
+        <v>575.5128433954891</v>
       </c>
       <c r="O31" t="n">
         <v>542.8637682561043</v>
@@ -37010,10 +37010,10 @@
         <v>101.7869254320035</v>
       </c>
       <c r="Q31" t="n">
-        <v>70.4719911420766</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R31" t="n">
-        <v>16.63746735027015</v>
+        <v>16.63746735027014</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -37065,28 +37065,28 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785919</v>
       </c>
       <c r="J32" t="n">
         <v>159.2391669125709</v>
       </c>
       <c r="K32" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L32" t="n">
         <v>296.0766412766674</v>
       </c>
       <c r="M32" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N32" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O32" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548414</v>
       </c>
       <c r="P32" t="n">
-        <v>269.7982739184538</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q32" t="n">
         <v>202.6072676879471</v>
@@ -37144,22 +37144,22 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916792</v>
       </c>
       <c r="J33" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562336</v>
       </c>
       <c r="K33" t="n">
-        <v>162.0996687415861</v>
+        <v>162.0996687415862</v>
       </c>
       <c r="L33" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646688</v>
       </c>
       <c r="M33" t="n">
         <v>254.3525508108055</v>
       </c>
       <c r="N33" t="n">
-        <v>261.0845059811315</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O33" t="n">
         <v>238.8413159742734</v>
@@ -37229,25 +37229,25 @@
         <v>146.9548978453263</v>
       </c>
       <c r="K34" t="n">
-        <v>275.6693847902798</v>
+        <v>375.3116718572664</v>
       </c>
       <c r="L34" t="n">
-        <v>547.5562458447062</v>
+        <v>547.556245844706</v>
       </c>
       <c r="M34" t="n">
-        <v>131.9236286247773</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N34" t="n">
-        <v>575.512843395489</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O34" t="n">
-        <v>118.9554357048098</v>
+        <v>296.14752065127</v>
       </c>
       <c r="P34" t="n">
         <v>452.8039900485103</v>
       </c>
       <c r="Q34" t="n">
-        <v>70.4719911420766</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R34" t="n">
         <v>16.63746735027015</v>
@@ -37302,19 +37302,19 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785918</v>
       </c>
       <c r="J35" t="n">
-        <v>159.2391669125709</v>
+        <v>159.2391669125707</v>
       </c>
       <c r="K35" t="n">
-        <v>238.6582327062836</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L35" t="n">
-        <v>296.0766412766677</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M35" t="n">
-        <v>329.4423112816035</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N35" t="n">
         <v>334.7730322994721</v>
@@ -37323,13 +37323,13 @@
         <v>316.1166813548411</v>
       </c>
       <c r="P35" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q35" t="n">
-        <v>202.6072676879467</v>
+        <v>202.6072676879471</v>
       </c>
       <c r="R35" t="n">
-        <v>117.8551356405465</v>
+        <v>117.855135640546</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,13 +37381,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916797</v>
       </c>
       <c r="J36" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562336</v>
       </c>
       <c r="K36" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L36" t="n">
         <v>217.963008964669</v>
@@ -37463,31 +37463,31 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>146.9548978453263</v>
+        <v>59.50067040624556</v>
       </c>
       <c r="K37" t="n">
-        <v>375.3116718572665</v>
+        <v>375.3116718572664</v>
       </c>
       <c r="L37" t="n">
         <v>125.1220218366645</v>
       </c>
       <c r="M37" t="n">
-        <v>590.0818943619345</v>
+        <v>590.081894361934</v>
       </c>
       <c r="N37" t="n">
-        <v>128.7867795998884</v>
+        <v>575.512843395489</v>
       </c>
       <c r="O37" t="n">
-        <v>260.4234789221546</v>
+        <v>422.0603989642941</v>
       </c>
       <c r="P37" t="n">
-        <v>452.8039900485103</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q37" t="n">
-        <v>240.36368292423</v>
+        <v>70.4719911420766</v>
       </c>
       <c r="R37" t="n">
-        <v>16.63746735027015</v>
+        <v>16.63746735027014</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -37539,28 +37539,28 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785918</v>
       </c>
       <c r="J38" t="n">
-        <v>159.2391669125709</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K38" t="n">
-        <v>238.6582327062839</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L38" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M38" t="n">
-        <v>329.4423112816035</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N38" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O38" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548409</v>
       </c>
       <c r="P38" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q38" t="n">
         <v>202.6072676879471</v>
@@ -37618,16 +37618,16 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>34.56235976916781</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J39" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562336</v>
       </c>
       <c r="K39" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L39" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646689</v>
       </c>
       <c r="M39" t="n">
         <v>254.3525508108055</v>
@@ -37639,7 +37639,7 @@
         <v>238.8413159742734</v>
       </c>
       <c r="P39" t="n">
-        <v>191.6912126917232</v>
+        <v>191.6912126917234</v>
       </c>
       <c r="Q39" t="n">
         <v>128.1404992002369</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>146.9548978453263</v>
+        <v>146.9548978453262</v>
       </c>
       <c r="K40" t="n">
-        <v>375.3116718572666</v>
+        <v>375.3116718572664</v>
       </c>
       <c r="L40" t="n">
-        <v>125.1220218366645</v>
+        <v>547.556245844706</v>
       </c>
       <c r="M40" t="n">
-        <v>590.0818943619342</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N40" t="n">
         <v>128.7867795998884</v>
       </c>
       <c r="O40" t="n">
-        <v>260.4234789221543</v>
+        <v>296.1475206512691</v>
       </c>
       <c r="P40" t="n">
         <v>452.8039900485103</v>
@@ -37724,7 +37724,7 @@
         <v>240.36368292423</v>
       </c>
       <c r="R40" t="n">
-        <v>16.63746735027015</v>
+        <v>16.63746735027014</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37776,28 +37776,28 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785918</v>
       </c>
       <c r="J41" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K41" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L41" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M41" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N41" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O41" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548409</v>
       </c>
       <c r="P41" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q41" t="n">
         <v>202.6072676879471</v>
@@ -37855,31 +37855,31 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>34.56235976916781</v>
+        <v>34.56235976916778</v>
       </c>
       <c r="J42" t="n">
-        <v>94.84175691562339</v>
+        <v>94.8417569156242</v>
       </c>
       <c r="K42" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L42" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646689</v>
       </c>
       <c r="M42" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108054</v>
       </c>
       <c r="N42" t="n">
         <v>261.0845059811313</v>
       </c>
       <c r="O42" t="n">
-        <v>238.8413159742734</v>
+        <v>238.8413159742731</v>
       </c>
       <c r="P42" t="n">
         <v>191.6912126917232</v>
       </c>
       <c r="Q42" t="n">
-        <v>128.1404992002369</v>
+        <v>128.1404992002367</v>
       </c>
       <c r="R42" t="n">
         <v>62.32672164233622</v>
@@ -37937,19 +37937,19 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>59.5006704062456</v>
+        <v>59.50067040624556</v>
       </c>
       <c r="K43" t="n">
-        <v>97.77787936116994</v>
+        <v>97.77787936116988</v>
       </c>
       <c r="L43" t="n">
-        <v>281.8524450409515</v>
+        <v>281.8524450409511</v>
       </c>
       <c r="M43" t="n">
-        <v>590.0818943619342</v>
+        <v>590.081894361934</v>
       </c>
       <c r="N43" t="n">
-        <v>575.512843395489</v>
+        <v>575.5128433954892</v>
       </c>
       <c r="O43" t="n">
         <v>542.8637682561043</v>
@@ -37958,10 +37958,10 @@
         <v>101.7869254320035</v>
       </c>
       <c r="Q43" t="n">
-        <v>70.4719911420766</v>
+        <v>70.47199114207615</v>
       </c>
       <c r="R43" t="n">
-        <v>16.63746735027015</v>
+        <v>16.63746735027013</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -38013,16 +38013,16 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785918</v>
       </c>
       <c r="J44" t="n">
-        <v>159.2391669125709</v>
+        <v>159.2391669125714</v>
       </c>
       <c r="K44" t="n">
-        <v>238.6582327062836</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L44" t="n">
-        <v>296.0766412766677</v>
+        <v>296.0766412766671</v>
       </c>
       <c r="M44" t="n">
         <v>329.4423112816035</v>
@@ -38031,16 +38031,16 @@
         <v>334.7730322994721</v>
       </c>
       <c r="O44" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548407</v>
       </c>
       <c r="P44" t="n">
         <v>269.7982739184536</v>
       </c>
       <c r="Q44" t="n">
-        <v>202.6072676879467</v>
+        <v>202.6072676879471</v>
       </c>
       <c r="R44" t="n">
-        <v>117.8551356405465</v>
+        <v>117.8551356405455</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,31 +38092,31 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916778</v>
       </c>
       <c r="J45" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562335</v>
       </c>
       <c r="K45" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L45" t="n">
         <v>217.963008964669</v>
       </c>
       <c r="M45" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108054</v>
       </c>
       <c r="N45" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811312</v>
       </c>
       <c r="O45" t="n">
-        <v>238.8413159742734</v>
+        <v>238.8413159742731</v>
       </c>
       <c r="P45" t="n">
-        <v>191.6912126917232</v>
+        <v>191.6912126917241</v>
       </c>
       <c r="Q45" t="n">
-        <v>128.1404992002369</v>
+        <v>128.1404992002367</v>
       </c>
       <c r="R45" t="n">
         <v>62.32672164233622</v>
@@ -38174,16 +38174,16 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>59.50067040624559</v>
+        <v>146.9548978453262</v>
       </c>
       <c r="K46" t="n">
-        <v>97.77787936116994</v>
+        <v>167.0540751263758</v>
       </c>
       <c r="L46" t="n">
-        <v>547.556245844706</v>
+        <v>125.1220218366645</v>
       </c>
       <c r="M46" t="n">
-        <v>324.3780935581799</v>
+        <v>590.081894361934</v>
       </c>
       <c r="N46" t="n">
         <v>575.5128433954892</v>
@@ -38195,10 +38195,10 @@
         <v>101.7869254320035</v>
       </c>
       <c r="Q46" t="n">
-        <v>70.4719911420766</v>
+        <v>70.47199114207615</v>
       </c>
       <c r="R46" t="n">
-        <v>16.63746735027015</v>
+        <v>16.63746735027013</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
